--- a/config_Release/fish_use_config.xlsx
+++ b/config_Release/fish_use_config.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>attr_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,6 +69,21 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cond_key|权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_031_xxy_show</t>
+  </si>
+  <si>
+    <t>actp_031_xxy_show</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_031_xxy_show</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -231,13 +246,13 @@
       <sheetName val="summon_fish"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
         <row r="1">
           <cell r="C1" t="str">
             <v>act_id|活动ID</v>
@@ -250,6 +265,9 @@
           <cell r="B2">
             <v>1</v>
           </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
         </row>
         <row r="3">
           <cell r="A3">
@@ -258,6 +276,9 @@
           <cell r="B3">
             <v>2</v>
           </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4">
@@ -266,6 +287,9 @@
           <cell r="B4">
             <v>3</v>
           </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5">
@@ -274,6 +298,9 @@
           <cell r="B5">
             <v>4</v>
           </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6">
@@ -282,6 +309,9 @@
           <cell r="B6">
             <v>5</v>
           </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="A7">
@@ -290,6 +320,9 @@
           <cell r="B7">
             <v>6</v>
           </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8">
@@ -298,6 +331,9 @@
           <cell r="B8">
             <v>7</v>
           </cell>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9">
@@ -306,6 +342,9 @@
           <cell r="B9">
             <v>8</v>
           </cell>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10">
@@ -314,6 +353,9 @@
           <cell r="B10">
             <v>9</v>
           </cell>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11">
@@ -322,6 +364,9 @@
           <cell r="B11">
             <v>10</v>
           </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12">
@@ -330,6 +375,9 @@
           <cell r="B12">
             <v>11</v>
           </cell>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13">
@@ -338,6 +386,9 @@
           <cell r="B13">
             <v>12</v>
           </cell>
+          <cell r="C13">
+            <v>0</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14">
@@ -346,6 +397,9 @@
           <cell r="B14">
             <v>13</v>
           </cell>
+          <cell r="C14">
+            <v>0</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15">
@@ -354,6 +408,9 @@
           <cell r="B15">
             <v>14</v>
           </cell>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16">
@@ -362,6 +419,9 @@
           <cell r="B16">
             <v>15</v>
           </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17">
@@ -370,6 +430,9 @@
           <cell r="B17">
             <v>16</v>
           </cell>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="A18">
@@ -378,6 +441,9 @@
           <cell r="B18">
             <v>17</v>
           </cell>
+          <cell r="C18">
+            <v>0</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="A19">
@@ -386,6 +452,9 @@
           <cell r="B19">
             <v>18</v>
           </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="A20">
@@ -1516,6 +1585,9 @@
           <cell r="B122">
             <v>20</v>
           </cell>
+          <cell r="C122">
+            <v>0</v>
+          </cell>
         </row>
         <row r="123">
           <cell r="A123">
@@ -1524,6 +1596,9 @@
           <cell r="B123">
             <v>21</v>
           </cell>
+          <cell r="C123">
+            <v>0</v>
+          </cell>
         </row>
         <row r="124">
           <cell r="A124">
@@ -1532,6 +1607,9 @@
           <cell r="B124">
             <v>28</v>
           </cell>
+          <cell r="C124">
+            <v>0</v>
+          </cell>
         </row>
         <row r="125">
           <cell r="A125">
@@ -1796,8 +1874,72 @@
             <v>24</v>
           </cell>
         </row>
+        <row r="150">
+          <cell r="B150">
+            <v>31</v>
+          </cell>
+          <cell r="C150">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151">
+            <v>31</v>
+          </cell>
+          <cell r="C151">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152">
+            <v>31</v>
+          </cell>
+          <cell r="C152">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153">
+            <v>5</v>
+          </cell>
+          <cell r="C153">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154">
+            <v>6</v>
+          </cell>
+          <cell r="C154">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155">
+            <v>7</v>
+          </cell>
+          <cell r="C155">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156">
+            <v>8</v>
+          </cell>
+          <cell r="C156">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157">
+            <v>9</v>
+          </cell>
+          <cell r="C157">
+            <v>30</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1">
+      <sheetData sheetId="7">
         <row r="1">
           <cell r="A1" t="str">
             <v>id|编号</v>
@@ -2103,21 +2245,54 @@
             <v>9</v>
           </cell>
           <cell r="D28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>28</v>
+          </cell>
+          <cell r="B29">
+            <v>9</v>
+          </cell>
+          <cell r="D29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>29</v>
+          </cell>
+          <cell r="B30">
+            <v>9</v>
+          </cell>
+          <cell r="D30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>30</v>
+          </cell>
+          <cell r="B31">
+            <v>9</v>
+          </cell>
+          <cell r="D31">
             <v>1</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2386,20 +2561,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C155"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="29.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2409,8 +2586,11 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <f>[1]use_fish!$A2</f>
         <v>1</v>
@@ -2424,7 +2604,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>[1]use_fish!$A3</f>
         <v>2</v>
@@ -2438,7 +2618,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f>[1]use_fish!$A4</f>
         <v>3</v>
@@ -2452,7 +2632,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f>[1]use_fish!$A5</f>
         <v>4</v>
@@ -2466,7 +2646,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f>[1]use_fish!$A6</f>
         <v>5</v>
@@ -2480,7 +2660,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f>[1]use_fish!$A7</f>
         <v>6</v>
@@ -2494,7 +2674,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f>[1]use_fish!$A8</f>
         <v>7</v>
@@ -2508,7 +2688,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f>[1]use_fish!$A9</f>
         <v>8</v>
@@ -2522,7 +2702,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f>[1]use_fish!$A10</f>
         <v>9</v>
@@ -2536,7 +2716,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f>[1]use_fish!$A11</f>
         <v>10</v>
@@ -2550,7 +2730,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f>[1]use_fish!$A12</f>
         <v>11</v>
@@ -2564,7 +2744,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f>[1]use_fish!$A13</f>
         <v>12</v>
@@ -2578,7 +2758,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f>[1]use_fish!$A14</f>
         <v>13</v>
@@ -2592,7 +2772,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f>[1]use_fish!$A15</f>
         <v>14</v>
@@ -2606,7 +2786,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f>[1]use_fish!$A16</f>
         <v>15</v>
@@ -4409,7 +4589,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <f>[1]use_fish!$A145</f>
         <v>144</v>
@@ -4423,7 +4603,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -4436,7 +4616,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -4449,7 +4629,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -4462,7 +4642,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -4475,53 +4655,141 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>149</v>
       </c>
       <c r="B150" s="4">
+        <f>[1]use_fish!$B150</f>
         <v>31</v>
       </c>
       <c r="C150" s="1" t="str">
         <f>IF(ISBLANK([1]use_fish!$C150),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>150</v>
       </c>
       <c r="B151" s="4">
-        <v>32</v>
+        <f>[1]use_fish!$B151</f>
+        <v>31</v>
       </c>
       <c r="C151" s="1" t="str">
+        <f>IF(ISBLANK([1]use_fish!$C151),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>151</v>
+      </c>
+      <c r="B152" s="4">
+        <f>[1]use_fish!$B152</f>
+        <v>31</v>
+      </c>
+      <c r="C152" s="1" t="str">
+        <f>IF(ISBLANK([1]use_fish!$C152),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>152</v>
+      </c>
+      <c r="B153" s="4">
+        <f>[1]use_fish!$B153</f>
+        <v>5</v>
+      </c>
+      <c r="C153" s="1">
+        <f>IF(ISBLANK([1]use_fish!$C153),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <v>9</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>153</v>
+      </c>
+      <c r="B154" s="4">
+        <f>[1]use_fish!$B154</f>
+        <v>6</v>
+      </c>
+      <c r="C154" s="1">
+        <f>IF(ISBLANK([1]use_fish!$C154),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <v>9</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>154</v>
+      </c>
+      <c r="B155" s="4">
+        <f>[1]use_fish!$B155</f>
+        <v>7</v>
+      </c>
+      <c r="C155" s="1">
+        <f>IF(ISBLANK([1]use_fish!$C155),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <v>9</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>155</v>
+      </c>
+      <c r="B156" s="4">
+        <f>[1]use_fish!$B156</f>
+        <v>8</v>
+      </c>
+      <c r="C156" s="1">
+        <f>IF(ISBLANK([1]use_fish!$C156),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <v>9</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>156</v>
+      </c>
+      <c r="B157" s="4">
+        <f>[1]use_fish!$B157</f>
+        <v>9</v>
+      </c>
+      <c r="C157" s="1">
         <f>IF(ISBLANK([1]use_fish!$C157),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C152" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C158),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C153" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C159),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C154" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C160),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C155" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C161),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="3"/>
+      <c r="B158" s="4"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="3"/>
+      <c r="B159" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_Release/fish_use_config.xlsx
+++ b/config_Release/fish_use_config.xlsx
@@ -164,7 +164,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,7 +200,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -232,14 +232,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2604,8 +2598,8 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F165" sqref="F165"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4824,101 +4818,103 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="11">
+    <row r="158" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="8">
         <v>157</v>
       </c>
-      <c r="B158" s="12">
+      <c r="B158" s="9">
         <v>6</v>
       </c>
-      <c r="C158" s="13">
+      <c r="C158" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="11">
+    <row r="159" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="8">
         <v>158</v>
       </c>
-      <c r="B159" s="12">
+      <c r="B159" s="9">
         <v>7</v>
       </c>
-      <c r="C159" s="13">
+      <c r="C159" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="11">
+    <row r="160" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="8">
         <v>159</v>
       </c>
-      <c r="B160" s="12">
+      <c r="B160" s="9">
         <v>8</v>
       </c>
-      <c r="C160" s="13">
+      <c r="C160" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="11">
+    <row r="161" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="8">
         <v>160</v>
       </c>
-      <c r="B161" s="12">
+      <c r="B161" s="9">
         <v>9</v>
       </c>
-      <c r="C161" s="13">
+      <c r="C161" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="11">
+    <row r="162" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="8">
         <v>161</v>
       </c>
-      <c r="B162" s="12">
+      <c r="B162" s="9">
         <v>10</v>
       </c>
-      <c r="C162" s="13">
+      <c r="C162" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="11">
+    <row r="163" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="8">
         <v>162</v>
       </c>
-      <c r="B163" s="12">
+      <c r="B163" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="11">
+    <row r="164" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="8">
         <v>163</v>
       </c>
-      <c r="B164" s="12">
+      <c r="B164" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="11">
+    <row r="165" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="8">
         <v>164</v>
       </c>
-      <c r="B165" s="12">
+      <c r="B165" s="9">
         <v>32</v>
       </c>
     </row>
     <row r="166" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="8"/>
-      <c r="B166" s="9"/>
+      <c r="A166" s="8">
+        <v>165</v>
+      </c>
+      <c r="B166" s="11">
+        <v>33</v>
+      </c>
     </row>
     <row r="167" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="8"/>
-      <c r="B167" s="9"/>
-    </row>
-    <row r="168" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="8"/>
-      <c r="B168" s="9"/>
-    </row>
-    <row r="169" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="8"/>
-      <c r="B169" s="9"/>
-    </row>
+      <c r="A167" s="8">
+        <v>166</v>
+      </c>
+      <c r="B167" s="11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/fish_use_config.xlsx
+++ b/config_Release/fish_use_config.xlsx
@@ -143,7 +143,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +154,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -188,7 +200,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -201,6 +213,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2562,21 +2601,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E157" sqref="E157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4655,141 +4696,228 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="3">
+    <row r="150" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="5">
         <v>149</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="6">
         <f>[1]use_fish!$B150</f>
         <v>31</v>
       </c>
-      <c r="C150" s="1" t="str">
+      <c r="C150" s="7" t="str">
         <f>IF(ISBLANK([1]use_fish!$C150),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="3">
+    <row r="151" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="5">
         <v>150</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="6">
         <f>[1]use_fish!$B151</f>
         <v>31</v>
       </c>
-      <c r="C151" s="1" t="str">
+      <c r="C151" s="7" t="str">
         <f>IF(ISBLANK([1]use_fish!$C151),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="3">
+    <row r="152" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="5">
         <v>151</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="6">
         <f>[1]use_fish!$B152</f>
         <v>31</v>
       </c>
-      <c r="C152" s="1" t="str">
+      <c r="C152" s="7" t="str">
         <f>IF(ISBLANK([1]use_fish!$C152),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="3">
+    <row r="153" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="5">
         <v>152</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="6">
         <f>[1]use_fish!$B153</f>
         <v>5</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="7">
         <f>IF(ISBLANK([1]use_fish!$C153),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="3">
+    <row r="154" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="5">
         <v>153</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="6">
         <f>[1]use_fish!$B154</f>
         <v>6</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="7">
         <f>IF(ISBLANK([1]use_fish!$C154),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="3">
+    <row r="155" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="5">
         <v>154</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="6">
         <f>[1]use_fish!$B155</f>
         <v>7</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="7">
         <f>IF(ISBLANK([1]use_fish!$C155),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="3">
+    <row r="156" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="5">
         <v>155</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="6">
         <f>[1]use_fish!$B156</f>
         <v>8</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="7">
         <f>IF(ISBLANK([1]use_fish!$C156),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="3">
+    <row r="157" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="5">
         <v>156</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="6">
         <f>[1]use_fish!$B157</f>
         <v>9</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="7">
         <f>IF(ISBLANK([1]use_fish!$C157),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="3"/>
-      <c r="B158" s="4"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="3"/>
-      <c r="B159" s="4"/>
+    <row r="158" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="11">
+        <v>157</v>
+      </c>
+      <c r="B158" s="12">
+        <v>6</v>
+      </c>
+      <c r="C158" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="11">
+        <v>158</v>
+      </c>
+      <c r="B159" s="12">
+        <v>7</v>
+      </c>
+      <c r="C159" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="11">
+        <v>159</v>
+      </c>
+      <c r="B160" s="12">
+        <v>8</v>
+      </c>
+      <c r="C160" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="11">
+        <v>160</v>
+      </c>
+      <c r="B161" s="12">
+        <v>9</v>
+      </c>
+      <c r="C161" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="11">
+        <v>161</v>
+      </c>
+      <c r="B162" s="12">
+        <v>10</v>
+      </c>
+      <c r="C162" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="11">
+        <v>162</v>
+      </c>
+      <c r="B163" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="11">
+        <v>163</v>
+      </c>
+      <c r="B164" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="11">
+        <v>164</v>
+      </c>
+      <c r="B165" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="8"/>
+      <c r="B166" s="9"/>
+    </row>
+    <row r="167" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="8"/>
+      <c r="B167" s="9"/>
+    </row>
+    <row r="168" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="8"/>
+      <c r="B168" s="9"/>
+    </row>
+    <row r="169" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="8"/>
+      <c r="B169" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_Release/fish_use_config.xlsx
+++ b/config_Release/fish_use_config.xlsx
@@ -143,7 +143,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +165,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,7 +206,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -226,14 +232,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2595,11 +2607,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D170" sqref="D170"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4818,103 +4830,186 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="8">
+    <row r="158" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="12">
         <v>157</v>
       </c>
-      <c r="B158" s="9">
+      <c r="B158" s="11">
         <v>6</v>
       </c>
-      <c r="C158" s="10">
+      <c r="C158" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="8">
+    <row r="159" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="12">
         <v>158</v>
       </c>
-      <c r="B159" s="9">
+      <c r="B159" s="11">
         <v>7</v>
       </c>
-      <c r="C159" s="10">
+      <c r="C159" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="8">
+    <row r="160" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="12">
         <v>159</v>
       </c>
-      <c r="B160" s="9">
+      <c r="B160" s="11">
         <v>8</v>
       </c>
-      <c r="C160" s="10">
+      <c r="C160" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="8">
+    <row r="161" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="12">
         <v>160</v>
       </c>
-      <c r="B161" s="9">
+      <c r="B161" s="11">
         <v>9</v>
       </c>
-      <c r="C161" s="10">
+      <c r="C161" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="8">
+    <row r="162" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="12">
         <v>161</v>
       </c>
-      <c r="B162" s="9">
+      <c r="B162" s="11">
         <v>10</v>
       </c>
-      <c r="C162" s="10">
+      <c r="C162" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="8">
+    <row r="163" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="12">
         <v>162</v>
       </c>
-      <c r="B163" s="9">
+      <c r="B163" s="11">
         <v>32</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="8">
+      <c r="C163" s="13"/>
+    </row>
+    <row r="164" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="12">
         <v>163</v>
       </c>
-      <c r="B164" s="9">
+      <c r="B164" s="11">
         <v>32</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="8">
+      <c r="C164" s="13"/>
+    </row>
+    <row r="165" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="12">
         <v>164</v>
       </c>
-      <c r="B165" s="9">
+      <c r="B165" s="11">
         <v>32</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C165" s="13"/>
+    </row>
+    <row r="166" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
         <v>165</v>
       </c>
-      <c r="B166" s="11">
+      <c r="B166" s="10">
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="8">
         <v>166</v>
       </c>
-      <c r="B167" s="11">
+      <c r="B167" s="10">
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="12">
+        <v>167</v>
+      </c>
+      <c r="B168" s="11">
+        <v>6</v>
+      </c>
+      <c r="C168" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="12">
+        <v>168</v>
+      </c>
+      <c r="B169" s="11">
+        <v>7</v>
+      </c>
+      <c r="C169" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="12">
+        <v>169</v>
+      </c>
+      <c r="B170" s="11">
+        <v>8</v>
+      </c>
+      <c r="C170" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="12">
+        <v>170</v>
+      </c>
+      <c r="B171" s="11">
+        <v>9</v>
+      </c>
+      <c r="C171" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="12">
+        <v>171</v>
+      </c>
+      <c r="B172" s="11">
+        <v>10</v>
+      </c>
+      <c r="C172" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="12">
+        <v>172</v>
+      </c>
+      <c r="B173" s="11">
+        <v>34</v>
+      </c>
+      <c r="C173" s="13"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="12">
+        <v>173</v>
+      </c>
+      <c r="B174" s="11">
+        <v>34</v>
+      </c>
+      <c r="C174" s="13"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="12">
+        <v>174</v>
+      </c>
+      <c r="B175" s="11">
+        <v>34</v>
+      </c>
+      <c r="C175" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/fish_use_config.xlsx
+++ b/config_Release/fish_use_config.xlsx
@@ -143,7 +143,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,7 +212,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -245,6 +251,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2607,11 +2622,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q169" sqref="Q169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5010,6 +5025,88 @@
       </c>
       <c r="C175" s="13"/>
     </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="14">
+        <v>175</v>
+      </c>
+      <c r="B176" s="15">
+        <v>6</v>
+      </c>
+      <c r="C176" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="14">
+        <v>176</v>
+      </c>
+      <c r="B177" s="15">
+        <v>7</v>
+      </c>
+      <c r="C177" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="14">
+        <v>177</v>
+      </c>
+      <c r="B178" s="15">
+        <v>8</v>
+      </c>
+      <c r="C178" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="14">
+        <v>178</v>
+      </c>
+      <c r="B179" s="15">
+        <v>9</v>
+      </c>
+      <c r="C179" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="14">
+        <v>179</v>
+      </c>
+      <c r="B180" s="15">
+        <v>10</v>
+      </c>
+      <c r="C180" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="14">
+        <v>180</v>
+      </c>
+      <c r="B181" s="15">
+        <v>35</v>
+      </c>
+      <c r="C181" s="16"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="14">
+        <v>181</v>
+      </c>
+      <c r="B182" s="15">
+        <v>35</v>
+      </c>
+      <c r="C182" s="16"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="14">
+        <v>182</v>
+      </c>
+      <c r="B183" s="15">
+        <v>35</v>
+      </c>
+      <c r="C183" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/fish_use_config.xlsx
+++ b/config_Release/fish_use_config.xlsx
@@ -143,7 +143,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,12 +159,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +206,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -226,40 +220,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -285,2074 +255,2309 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="profit"/>
-      <sheetName val="random_wave"/>
-      <sheetName val="wave"/>
-      <sheetName val="image_type_cfg"/>
-      <sheetName val="image_cfg"/>
       <sheetName val="group"/>
       <sheetName val="use_fish"/>
       <sheetName val="activity"/>
       <sheetName val="box_fish_activity"/>
       <sheetName val="base_fish"/>
       <sheetName val="path"/>
-      <sheetName val="laser"/>
-      <sheetName val="gun"/>
       <sheetName val="skill"/>
       <sheetName val="dead_mode"/>
       <sheetName val="box_fish_award"/>
+      <sheetName val="summon_fish"/>
+      <sheetName val="profit"/>
+      <sheetName val="random_wave"/>
+      <sheetName val="wave"/>
+      <sheetName val="image_type_cfg"/>
+      <sheetName val="image_cfg"/>
+      <sheetName val="laser"/>
+      <sheetName val="gun"/>
       <sheetName val="match_award"/>
       <sheetName val="ue_event_map"/>
-      <sheetName val="summon_fish"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>act_id|活动ID</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2">
+            <v>1</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="B3">
+            <v>2</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="B4">
+            <v>3</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="B5">
+            <v>4</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="B6">
+            <v>5</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="B7">
+            <v>6</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>7</v>
+          </cell>
+          <cell r="B8">
+            <v>7</v>
+          </cell>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>8</v>
+          </cell>
+          <cell r="B9">
+            <v>8</v>
+          </cell>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>9</v>
+          </cell>
+          <cell r="B10">
+            <v>9</v>
+          </cell>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>10</v>
+          </cell>
+          <cell r="B11">
+            <v>10</v>
+          </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>11</v>
+          </cell>
+          <cell r="B12">
+            <v>11</v>
+          </cell>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>12</v>
+          </cell>
+          <cell r="B13">
+            <v>12</v>
+          </cell>
+          <cell r="C13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>13</v>
+          </cell>
+          <cell r="B14">
+            <v>13</v>
+          </cell>
+          <cell r="C14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>14</v>
+          </cell>
+          <cell r="B15">
+            <v>14</v>
+          </cell>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>15</v>
+          </cell>
+          <cell r="B16">
+            <v>15</v>
+          </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>16</v>
+          </cell>
+          <cell r="B17">
+            <v>16</v>
+          </cell>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>17</v>
+          </cell>
+          <cell r="B18">
+            <v>17</v>
+          </cell>
+          <cell r="C18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>18</v>
+          </cell>
+          <cell r="B19">
+            <v>18</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>19</v>
+          </cell>
+          <cell r="B20">
+            <v>6</v>
+          </cell>
+          <cell r="C20">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>20</v>
+          </cell>
+          <cell r="B21">
+            <v>6</v>
+          </cell>
+          <cell r="C21">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>21</v>
+          </cell>
+          <cell r="B22">
+            <v>6</v>
+          </cell>
+          <cell r="C22">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>22</v>
+          </cell>
+          <cell r="B23">
+            <v>6</v>
+          </cell>
+          <cell r="C23">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>23</v>
+          </cell>
+          <cell r="B24">
+            <v>6</v>
+          </cell>
+          <cell r="C24">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>24</v>
+          </cell>
+          <cell r="B25">
+            <v>7</v>
+          </cell>
+          <cell r="C25">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>25</v>
+          </cell>
+          <cell r="B26">
+            <v>7</v>
+          </cell>
+          <cell r="C26">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>26</v>
+          </cell>
+          <cell r="B27">
+            <v>7</v>
+          </cell>
+          <cell r="C27">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>27</v>
+          </cell>
+          <cell r="B28">
+            <v>7</v>
+          </cell>
+          <cell r="C28">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>28</v>
+          </cell>
+          <cell r="B29">
+            <v>7</v>
+          </cell>
+          <cell r="C29">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>29</v>
+          </cell>
+          <cell r="B30">
+            <v>8</v>
+          </cell>
+          <cell r="C30">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>30</v>
+          </cell>
+          <cell r="B31">
+            <v>8</v>
+          </cell>
+          <cell r="C31">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>31</v>
+          </cell>
+          <cell r="B32">
+            <v>8</v>
+          </cell>
+          <cell r="C32">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>32</v>
+          </cell>
+          <cell r="B33">
+            <v>8</v>
+          </cell>
+          <cell r="C33">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>33</v>
+          </cell>
+          <cell r="B34">
+            <v>8</v>
+          </cell>
+          <cell r="C34">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>34</v>
+          </cell>
+          <cell r="B35">
+            <v>8</v>
+          </cell>
+          <cell r="C35">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>35</v>
+          </cell>
+          <cell r="B36">
+            <v>8</v>
+          </cell>
+          <cell r="C36">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>36</v>
+          </cell>
+          <cell r="B37">
+            <v>9</v>
+          </cell>
+          <cell r="C37">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>37</v>
+          </cell>
+          <cell r="B38">
+            <v>9</v>
+          </cell>
+          <cell r="C38">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>38</v>
+          </cell>
+          <cell r="B39">
+            <v>9</v>
+          </cell>
+          <cell r="C39">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>39</v>
+          </cell>
+          <cell r="B40">
+            <v>9</v>
+          </cell>
+          <cell r="C40">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>40</v>
+          </cell>
+          <cell r="B41">
+            <v>9</v>
+          </cell>
+          <cell r="C41">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>41</v>
+          </cell>
+          <cell r="B42">
+            <v>9</v>
+          </cell>
+          <cell r="C42">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>42</v>
+          </cell>
+          <cell r="B43">
+            <v>9</v>
+          </cell>
+          <cell r="C43">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>43</v>
+          </cell>
+          <cell r="B44">
+            <v>9</v>
+          </cell>
+          <cell r="C44">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>44</v>
+          </cell>
+          <cell r="B45">
+            <v>9</v>
+          </cell>
+          <cell r="C45">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>45</v>
+          </cell>
+          <cell r="B46">
+            <v>10</v>
+          </cell>
+          <cell r="C46">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>46</v>
+          </cell>
+          <cell r="B47">
+            <v>10</v>
+          </cell>
+          <cell r="C47">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>47</v>
+          </cell>
+          <cell r="B48">
+            <v>10</v>
+          </cell>
+          <cell r="C48">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>48</v>
+          </cell>
+          <cell r="B49">
+            <v>10</v>
+          </cell>
+          <cell r="C49">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>49</v>
+          </cell>
+          <cell r="B50">
+            <v>10</v>
+          </cell>
+          <cell r="C50">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>50</v>
+          </cell>
+          <cell r="B51">
+            <v>10</v>
+          </cell>
+          <cell r="C51">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>51</v>
+          </cell>
+          <cell r="B52">
+            <v>10</v>
+          </cell>
+          <cell r="C52">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>52</v>
+          </cell>
+          <cell r="B53">
+            <v>10</v>
+          </cell>
+          <cell r="C53">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>53</v>
+          </cell>
+          <cell r="B54">
+            <v>10</v>
+          </cell>
+          <cell r="C54">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>54</v>
+          </cell>
+          <cell r="B55">
+            <v>10</v>
+          </cell>
+          <cell r="C55">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>55</v>
+          </cell>
+          <cell r="B56">
+            <v>11</v>
+          </cell>
+          <cell r="C56">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>56</v>
+          </cell>
+          <cell r="B57">
+            <v>11</v>
+          </cell>
+          <cell r="C57">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>57</v>
+          </cell>
+          <cell r="B58">
+            <v>11</v>
+          </cell>
+          <cell r="C58">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>58</v>
+          </cell>
+          <cell r="B59">
+            <v>11</v>
+          </cell>
+          <cell r="C59">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>59</v>
+          </cell>
+          <cell r="B60">
+            <v>11</v>
+          </cell>
+          <cell r="C60">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>60</v>
+          </cell>
+          <cell r="B61">
+            <v>11</v>
+          </cell>
+          <cell r="C61">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>61</v>
+          </cell>
+          <cell r="B62">
+            <v>11</v>
+          </cell>
+          <cell r="C62">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>62</v>
+          </cell>
+          <cell r="B63">
+            <v>11</v>
+          </cell>
+          <cell r="C63">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>63</v>
+          </cell>
+          <cell r="B64">
+            <v>11</v>
+          </cell>
+          <cell r="C64">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>64</v>
+          </cell>
+          <cell r="B65">
+            <v>12</v>
+          </cell>
+          <cell r="C65">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>65</v>
+          </cell>
+          <cell r="B66">
+            <v>12</v>
+          </cell>
+          <cell r="C66">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>66</v>
+          </cell>
+          <cell r="B67">
+            <v>12</v>
+          </cell>
+          <cell r="C67">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>67</v>
+          </cell>
+          <cell r="B68">
+            <v>12</v>
+          </cell>
+          <cell r="C68">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>68</v>
+          </cell>
+          <cell r="B69">
+            <v>12</v>
+          </cell>
+          <cell r="C69">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>69</v>
+          </cell>
+          <cell r="B70">
+            <v>12</v>
+          </cell>
+          <cell r="C70">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>70</v>
+          </cell>
+          <cell r="B71">
+            <v>12</v>
+          </cell>
+          <cell r="C71">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>71</v>
+          </cell>
+          <cell r="B72">
+            <v>12</v>
+          </cell>
+          <cell r="C72">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>72</v>
+          </cell>
+          <cell r="B73">
+            <v>14</v>
+          </cell>
+          <cell r="C73">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>73</v>
+          </cell>
+          <cell r="B74">
+            <v>14</v>
+          </cell>
+          <cell r="C74">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>74</v>
+          </cell>
+          <cell r="B75">
+            <v>14</v>
+          </cell>
+          <cell r="C75">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>75</v>
+          </cell>
+          <cell r="B76">
+            <v>14</v>
+          </cell>
+          <cell r="C76">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>76</v>
+          </cell>
+          <cell r="B77">
+            <v>14</v>
+          </cell>
+          <cell r="C77">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>77</v>
+          </cell>
+          <cell r="B78">
+            <v>14</v>
+          </cell>
+          <cell r="C78">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>78</v>
+          </cell>
+          <cell r="B79">
+            <v>14</v>
+          </cell>
+          <cell r="C79">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>79</v>
+          </cell>
+          <cell r="B80">
+            <v>14</v>
+          </cell>
+          <cell r="C80">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>80</v>
+          </cell>
+          <cell r="B81">
+            <v>14</v>
+          </cell>
+          <cell r="C81">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>81</v>
+          </cell>
+          <cell r="B82">
+            <v>14</v>
+          </cell>
+          <cell r="C82">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>82</v>
+          </cell>
+          <cell r="B83">
+            <v>15</v>
+          </cell>
+          <cell r="C83">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>83</v>
+          </cell>
+          <cell r="B84">
+            <v>15</v>
+          </cell>
+          <cell r="C84">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>84</v>
+          </cell>
+          <cell r="B85">
+            <v>15</v>
+          </cell>
+          <cell r="C85">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>85</v>
+          </cell>
+          <cell r="B86">
+            <v>15</v>
+          </cell>
+          <cell r="C86">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>86</v>
+          </cell>
+          <cell r="B87">
+            <v>15</v>
+          </cell>
+          <cell r="C87">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>87</v>
+          </cell>
+          <cell r="B88">
+            <v>15</v>
+          </cell>
+          <cell r="C88">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>88</v>
+          </cell>
+          <cell r="B89">
+            <v>15</v>
+          </cell>
+          <cell r="C89">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>89</v>
+          </cell>
+          <cell r="B90">
+            <v>15</v>
+          </cell>
+          <cell r="C90">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>90</v>
+          </cell>
+          <cell r="B91">
+            <v>15</v>
+          </cell>
+          <cell r="C91">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>91</v>
+          </cell>
+          <cell r="B92">
+            <v>15</v>
+          </cell>
+          <cell r="C92">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>92</v>
+          </cell>
+          <cell r="B93">
+            <v>16</v>
+          </cell>
+          <cell r="C93">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>93</v>
+          </cell>
+          <cell r="B94">
+            <v>16</v>
+          </cell>
+          <cell r="C94">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>94</v>
+          </cell>
+          <cell r="B95">
+            <v>16</v>
+          </cell>
+          <cell r="C95">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>95</v>
+          </cell>
+          <cell r="B96">
+            <v>16</v>
+          </cell>
+          <cell r="C96">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>96</v>
+          </cell>
+          <cell r="B97">
+            <v>16</v>
+          </cell>
+          <cell r="C97">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>97</v>
+          </cell>
+          <cell r="B98">
+            <v>16</v>
+          </cell>
+          <cell r="C98">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>98</v>
+          </cell>
+          <cell r="B99">
+            <v>16</v>
+          </cell>
+          <cell r="C99">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>99</v>
+          </cell>
+          <cell r="B100">
+            <v>16</v>
+          </cell>
+          <cell r="C100">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>100</v>
+          </cell>
+          <cell r="B101">
+            <v>16</v>
+          </cell>
+          <cell r="C101">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>101</v>
+          </cell>
+          <cell r="B102">
+            <v>16</v>
+          </cell>
+          <cell r="C102">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>102</v>
+          </cell>
+          <cell r="B103">
+            <v>3</v>
+          </cell>
+          <cell r="C103">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>103</v>
+          </cell>
+          <cell r="B104">
+            <v>4</v>
+          </cell>
+          <cell r="C104">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>104</v>
+          </cell>
+          <cell r="B105">
+            <v>5</v>
+          </cell>
+          <cell r="C105">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>105</v>
+          </cell>
+          <cell r="B106">
+            <v>6</v>
+          </cell>
+          <cell r="C106">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>106</v>
+          </cell>
+          <cell r="B107">
+            <v>7</v>
+          </cell>
+          <cell r="C107">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>107</v>
+          </cell>
+          <cell r="B108">
+            <v>8</v>
+          </cell>
+          <cell r="C108">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>108</v>
+          </cell>
+          <cell r="B109">
+            <v>9</v>
+          </cell>
+          <cell r="C109">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>109</v>
+          </cell>
+          <cell r="B110">
+            <v>10</v>
+          </cell>
+          <cell r="C110">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>110</v>
+          </cell>
+          <cell r="B111">
+            <v>3</v>
+          </cell>
+          <cell r="C111">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>111</v>
+          </cell>
+          <cell r="B112">
+            <v>4</v>
+          </cell>
+          <cell r="C112">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
+            <v>112</v>
+          </cell>
+          <cell r="B113">
+            <v>5</v>
+          </cell>
+          <cell r="C113">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>113</v>
+          </cell>
+          <cell r="B114">
+            <v>6</v>
+          </cell>
+          <cell r="C114">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>114</v>
+          </cell>
+          <cell r="B115">
+            <v>7</v>
+          </cell>
+          <cell r="C115">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>115</v>
+          </cell>
+          <cell r="B116">
+            <v>8</v>
+          </cell>
+          <cell r="C116">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>116</v>
+          </cell>
+          <cell r="B117">
+            <v>9</v>
+          </cell>
+          <cell r="C117">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>117</v>
+          </cell>
+          <cell r="B118">
+            <v>10</v>
+          </cell>
+          <cell r="C118">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
+            <v>118</v>
+          </cell>
+          <cell r="B119">
+            <v>19</v>
+          </cell>
+          <cell r="C119">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>119</v>
+          </cell>
+          <cell r="B120">
+            <v>19</v>
+          </cell>
+          <cell r="C120">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>120</v>
+          </cell>
+          <cell r="B121">
+            <v>19</v>
+          </cell>
+          <cell r="C121">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>121</v>
+          </cell>
+          <cell r="B122">
+            <v>20</v>
+          </cell>
+          <cell r="C122">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>122</v>
+          </cell>
+          <cell r="B123">
+            <v>21</v>
+          </cell>
+          <cell r="C123">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
+            <v>123</v>
+          </cell>
+          <cell r="B124">
+            <v>28</v>
+          </cell>
+          <cell r="C124">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125">
+            <v>124</v>
+          </cell>
+          <cell r="B125">
+            <v>1</v>
+          </cell>
+          <cell r="C125">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126">
+            <v>125</v>
+          </cell>
+          <cell r="B126">
+            <v>9</v>
+          </cell>
+          <cell r="C126">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127">
+            <v>126</v>
+          </cell>
+          <cell r="B127">
+            <v>10</v>
+          </cell>
+          <cell r="C127">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128">
+            <v>127</v>
+          </cell>
+          <cell r="B128">
+            <v>11</v>
+          </cell>
+          <cell r="C128">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129">
+            <v>128</v>
+          </cell>
+          <cell r="B129">
+            <v>12</v>
+          </cell>
+          <cell r="C129">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130">
+            <v>129</v>
+          </cell>
+          <cell r="B130">
+            <v>6</v>
+          </cell>
+          <cell r="C130">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131">
+            <v>130</v>
+          </cell>
+          <cell r="B131">
+            <v>7</v>
+          </cell>
+          <cell r="C131">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132">
+            <v>131</v>
+          </cell>
+          <cell r="B132">
+            <v>8</v>
+          </cell>
+          <cell r="C132">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133">
+            <v>132</v>
+          </cell>
+          <cell r="B133">
+            <v>9</v>
+          </cell>
+          <cell r="C133">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134">
+            <v>133</v>
+          </cell>
+          <cell r="B134">
+            <v>10</v>
+          </cell>
+          <cell r="C134">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135">
+            <v>134</v>
+          </cell>
+          <cell r="B135">
+            <v>11</v>
+          </cell>
+          <cell r="C135">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136">
+            <v>135</v>
+          </cell>
+          <cell r="B136">
+            <v>12</v>
+          </cell>
+          <cell r="C136">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137">
+            <v>136</v>
+          </cell>
+          <cell r="B137">
+            <v>8</v>
+          </cell>
+          <cell r="C137">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138">
+            <v>137</v>
+          </cell>
+          <cell r="B138">
+            <v>9</v>
+          </cell>
+          <cell r="C138">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139">
+            <v>138</v>
+          </cell>
+          <cell r="B139">
+            <v>10</v>
+          </cell>
+          <cell r="C139">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140">
+            <v>139</v>
+          </cell>
+          <cell r="B140">
+            <v>11</v>
+          </cell>
+          <cell r="C140">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141">
+            <v>140</v>
+          </cell>
+          <cell r="B141">
+            <v>12</v>
+          </cell>
+          <cell r="C141">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142">
+            <v>141</v>
+          </cell>
+          <cell r="B142">
+            <v>29</v>
+          </cell>
+          <cell r="C142">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143">
+            <v>142</v>
+          </cell>
+          <cell r="B143">
+            <v>29</v>
+          </cell>
+          <cell r="C143">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144">
+            <v>143</v>
+          </cell>
+          <cell r="B144">
+            <v>29</v>
+          </cell>
+          <cell r="C144">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145">
+            <v>144</v>
+          </cell>
+          <cell r="B145">
+            <v>29</v>
+          </cell>
+          <cell r="C145">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146">
+            <v>145</v>
+          </cell>
+          <cell r="B146">
+            <v>30</v>
+          </cell>
+          <cell r="C146">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147">
+            <v>146</v>
+          </cell>
+          <cell r="B147">
+            <v>30</v>
+          </cell>
+          <cell r="C147">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148">
+            <v>147</v>
+          </cell>
+          <cell r="B148">
+            <v>30</v>
+          </cell>
+          <cell r="C148">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149">
+            <v>148</v>
+          </cell>
+          <cell r="B149">
+            <v>30</v>
+          </cell>
+          <cell r="C149">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150">
+            <v>149</v>
+          </cell>
+          <cell r="B150">
+            <v>31</v>
+          </cell>
+          <cell r="C150">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151">
+            <v>150</v>
+          </cell>
+          <cell r="B151">
+            <v>31</v>
+          </cell>
+          <cell r="C151">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152">
+            <v>151</v>
+          </cell>
+          <cell r="B152">
+            <v>31</v>
+          </cell>
+          <cell r="C152">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153">
+            <v>152</v>
+          </cell>
+          <cell r="B153">
+            <v>5</v>
+          </cell>
+          <cell r="C153">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154">
+            <v>153</v>
+          </cell>
+          <cell r="B154">
+            <v>6</v>
+          </cell>
+          <cell r="C154">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155">
+            <v>154</v>
+          </cell>
+          <cell r="B155">
+            <v>7</v>
+          </cell>
+          <cell r="C155">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156">
+            <v>155</v>
+          </cell>
+          <cell r="B156">
+            <v>8</v>
+          </cell>
+          <cell r="C156">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157">
+            <v>156</v>
+          </cell>
+          <cell r="B157">
+            <v>9</v>
+          </cell>
+          <cell r="C157">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158">
+            <v>157</v>
+          </cell>
+          <cell r="B158">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159">
+            <v>158</v>
+          </cell>
+          <cell r="B159">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160">
+            <v>159</v>
+          </cell>
+          <cell r="B160">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161">
+            <v>160</v>
+          </cell>
+          <cell r="B161">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162">
+            <v>161</v>
+          </cell>
+          <cell r="B162">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163">
+            <v>162</v>
+          </cell>
+          <cell r="B163">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164">
+            <v>163</v>
+          </cell>
+          <cell r="B164">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165">
+            <v>164</v>
+          </cell>
+          <cell r="B165">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166">
+            <v>165</v>
+          </cell>
+          <cell r="B166">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167">
+            <v>166</v>
+          </cell>
+          <cell r="B167">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168">
+            <v>167</v>
+          </cell>
+          <cell r="B168">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169">
+            <v>168</v>
+          </cell>
+          <cell r="B169">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170">
+            <v>169</v>
+          </cell>
+          <cell r="B170">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171">
+            <v>170</v>
+          </cell>
+          <cell r="B171">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172">
+            <v>171</v>
+          </cell>
+          <cell r="B172">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173">
+            <v>172</v>
+          </cell>
+          <cell r="B173">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174">
+            <v>173</v>
+          </cell>
+          <cell r="B174">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175">
+            <v>174</v>
+          </cell>
+          <cell r="B175">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176">
+            <v>175</v>
+          </cell>
+          <cell r="B176">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177">
+            <v>176</v>
+          </cell>
+          <cell r="B177">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178">
+            <v>177</v>
+          </cell>
+          <cell r="B178">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179">
+            <v>178</v>
+          </cell>
+          <cell r="B179">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180">
+            <v>179</v>
+          </cell>
+          <cell r="B180">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="A182">
+            <v>181</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="A183">
+            <v>182</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id|编号</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>acti_type|活动类型</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>show|显隐1显0隐</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2">
+            <v>1</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="B3">
+            <v>2</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="B4">
+            <v>3</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="B5">
+            <v>4</v>
+          </cell>
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="B6">
+            <v>5</v>
+          </cell>
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="B7">
+            <v>4</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>7</v>
+          </cell>
+          <cell r="B8">
+            <v>1</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>8</v>
+          </cell>
+          <cell r="B9">
+            <v>4</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>9</v>
+          </cell>
+          <cell r="B10">
+            <v>5</v>
+          </cell>
+          <cell r="D10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>10</v>
+          </cell>
+          <cell r="B11">
+            <v>5</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>11</v>
+          </cell>
+          <cell r="B12">
+            <v>7</v>
+          </cell>
+          <cell r="D12">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>12</v>
+          </cell>
+          <cell r="B13">
+            <v>7</v>
+          </cell>
+          <cell r="D13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>13</v>
+          </cell>
+          <cell r="B14">
+            <v>8</v>
+          </cell>
+          <cell r="D14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>14</v>
+          </cell>
+          <cell r="B15">
+            <v>8</v>
+          </cell>
+          <cell r="D15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>15</v>
+          </cell>
+          <cell r="B16">
+            <v>9</v>
+          </cell>
+          <cell r="D16">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>16</v>
+          </cell>
+          <cell r="B17">
+            <v>9</v>
+          </cell>
+          <cell r="D17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>17</v>
+          </cell>
+          <cell r="B18">
+            <v>10</v>
+          </cell>
+          <cell r="D18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>18</v>
+          </cell>
+          <cell r="B19">
+            <v>18</v>
+          </cell>
+          <cell r="D19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>19</v>
+          </cell>
+          <cell r="B20">
+            <v>17</v>
+          </cell>
+          <cell r="D20">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>20</v>
+          </cell>
+          <cell r="B21">
+            <v>19</v>
+          </cell>
+          <cell r="D21">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>21</v>
+          </cell>
+          <cell r="B22">
+            <v>20</v>
+          </cell>
+          <cell r="D22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>22</v>
+          </cell>
+          <cell r="B23">
+            <v>20</v>
+          </cell>
+          <cell r="D23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>23</v>
+          </cell>
+          <cell r="B24">
+            <v>20</v>
+          </cell>
+          <cell r="D24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>24</v>
+          </cell>
+          <cell r="B25">
+            <v>20</v>
+          </cell>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>25</v>
+          </cell>
+          <cell r="B26">
+            <v>26</v>
+          </cell>
+          <cell r="D26">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>26</v>
+          </cell>
+          <cell r="B27">
+            <v>27</v>
+          </cell>
+          <cell r="D27">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>27</v>
+          </cell>
+          <cell r="B28">
+            <v>9</v>
+          </cell>
+          <cell r="D28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>28</v>
+          </cell>
+          <cell r="B29">
+            <v>9</v>
+          </cell>
+          <cell r="D29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>29</v>
+          </cell>
+          <cell r="B30">
+            <v>9</v>
+          </cell>
+          <cell r="D30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>30</v>
+          </cell>
+          <cell r="B31">
+            <v>9</v>
+          </cell>
+          <cell r="D31">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>act_id|活动ID</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2">
-            <v>1</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3">
-            <v>2</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4">
-            <v>3</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5">
-            <v>4</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6">
-            <v>5</v>
-          </cell>
-          <cell r="C6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7">
-            <v>6</v>
-          </cell>
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>7</v>
-          </cell>
-          <cell r="B8">
-            <v>7</v>
-          </cell>
-          <cell r="C8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>8</v>
-          </cell>
-          <cell r="B9">
-            <v>8</v>
-          </cell>
-          <cell r="C9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>9</v>
-          </cell>
-          <cell r="B10">
-            <v>9</v>
-          </cell>
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>10</v>
-          </cell>
-          <cell r="B11">
-            <v>10</v>
-          </cell>
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>11</v>
-          </cell>
-          <cell r="B12">
-            <v>11</v>
-          </cell>
-          <cell r="C12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>12</v>
-          </cell>
-          <cell r="B13">
-            <v>12</v>
-          </cell>
-          <cell r="C13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>13</v>
-          </cell>
-          <cell r="B14">
-            <v>13</v>
-          </cell>
-          <cell r="C14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>14</v>
-          </cell>
-          <cell r="B15">
-            <v>14</v>
-          </cell>
-          <cell r="C15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>15</v>
-          </cell>
-          <cell r="B16">
-            <v>15</v>
-          </cell>
-          <cell r="C16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>16</v>
-          </cell>
-          <cell r="B17">
-            <v>16</v>
-          </cell>
-          <cell r="C17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>17</v>
-          </cell>
-          <cell r="B18">
-            <v>17</v>
-          </cell>
-          <cell r="C18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>18</v>
-          </cell>
-          <cell r="B19">
-            <v>18</v>
-          </cell>
-          <cell r="C19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>19</v>
-          </cell>
-          <cell r="B20">
-            <v>6</v>
-          </cell>
-          <cell r="C20">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>20</v>
-          </cell>
-          <cell r="B21">
-            <v>6</v>
-          </cell>
-          <cell r="C21">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>21</v>
-          </cell>
-          <cell r="B22">
-            <v>6</v>
-          </cell>
-          <cell r="C22">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>22</v>
-          </cell>
-          <cell r="B23">
-            <v>6</v>
-          </cell>
-          <cell r="C23">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>23</v>
-          </cell>
-          <cell r="B24">
-            <v>6</v>
-          </cell>
-          <cell r="C24">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>24</v>
-          </cell>
-          <cell r="B25">
-            <v>7</v>
-          </cell>
-          <cell r="C25">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>25</v>
-          </cell>
-          <cell r="B26">
-            <v>7</v>
-          </cell>
-          <cell r="C26">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>26</v>
-          </cell>
-          <cell r="B27">
-            <v>7</v>
-          </cell>
-          <cell r="C27">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>27</v>
-          </cell>
-          <cell r="B28">
-            <v>7</v>
-          </cell>
-          <cell r="C28">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>28</v>
-          </cell>
-          <cell r="B29">
-            <v>7</v>
-          </cell>
-          <cell r="C29">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>29</v>
-          </cell>
-          <cell r="B30">
-            <v>8</v>
-          </cell>
-          <cell r="C30">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>30</v>
-          </cell>
-          <cell r="B31">
-            <v>8</v>
-          </cell>
-          <cell r="C31">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>31</v>
-          </cell>
-          <cell r="B32">
-            <v>8</v>
-          </cell>
-          <cell r="C32">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>32</v>
-          </cell>
-          <cell r="B33">
-            <v>8</v>
-          </cell>
-          <cell r="C33">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>33</v>
-          </cell>
-          <cell r="B34">
-            <v>8</v>
-          </cell>
-          <cell r="C34">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>34</v>
-          </cell>
-          <cell r="B35">
-            <v>8</v>
-          </cell>
-          <cell r="C35">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>35</v>
-          </cell>
-          <cell r="B36">
-            <v>8</v>
-          </cell>
-          <cell r="C36">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>36</v>
-          </cell>
-          <cell r="B37">
-            <v>9</v>
-          </cell>
-          <cell r="C37">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>37</v>
-          </cell>
-          <cell r="B38">
-            <v>9</v>
-          </cell>
-          <cell r="C38">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>38</v>
-          </cell>
-          <cell r="B39">
-            <v>9</v>
-          </cell>
-          <cell r="C39">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>39</v>
-          </cell>
-          <cell r="B40">
-            <v>9</v>
-          </cell>
-          <cell r="C40">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>40</v>
-          </cell>
-          <cell r="B41">
-            <v>9</v>
-          </cell>
-          <cell r="C41">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>41</v>
-          </cell>
-          <cell r="B42">
-            <v>9</v>
-          </cell>
-          <cell r="C42">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>42</v>
-          </cell>
-          <cell r="B43">
-            <v>9</v>
-          </cell>
-          <cell r="C43">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>43</v>
-          </cell>
-          <cell r="B44">
-            <v>9</v>
-          </cell>
-          <cell r="C44">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>44</v>
-          </cell>
-          <cell r="B45">
-            <v>9</v>
-          </cell>
-          <cell r="C45">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>45</v>
-          </cell>
-          <cell r="B46">
-            <v>10</v>
-          </cell>
-          <cell r="C46">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>46</v>
-          </cell>
-          <cell r="B47">
-            <v>10</v>
-          </cell>
-          <cell r="C47">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>47</v>
-          </cell>
-          <cell r="B48">
-            <v>10</v>
-          </cell>
-          <cell r="C48">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>48</v>
-          </cell>
-          <cell r="B49">
-            <v>10</v>
-          </cell>
-          <cell r="C49">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>49</v>
-          </cell>
-          <cell r="B50">
-            <v>10</v>
-          </cell>
-          <cell r="C50">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>50</v>
-          </cell>
-          <cell r="B51">
-            <v>10</v>
-          </cell>
-          <cell r="C51">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>51</v>
-          </cell>
-          <cell r="B52">
-            <v>10</v>
-          </cell>
-          <cell r="C52">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>52</v>
-          </cell>
-          <cell r="B53">
-            <v>10</v>
-          </cell>
-          <cell r="C53">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>53</v>
-          </cell>
-          <cell r="B54">
-            <v>10</v>
-          </cell>
-          <cell r="C54">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>54</v>
-          </cell>
-          <cell r="B55">
-            <v>10</v>
-          </cell>
-          <cell r="C55">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>55</v>
-          </cell>
-          <cell r="B56">
-            <v>11</v>
-          </cell>
-          <cell r="C56">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>56</v>
-          </cell>
-          <cell r="B57">
-            <v>11</v>
-          </cell>
-          <cell r="C57">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>57</v>
-          </cell>
-          <cell r="B58">
-            <v>11</v>
-          </cell>
-          <cell r="C58">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>58</v>
-          </cell>
-          <cell r="B59">
-            <v>11</v>
-          </cell>
-          <cell r="C59">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>59</v>
-          </cell>
-          <cell r="B60">
-            <v>11</v>
-          </cell>
-          <cell r="C60">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>60</v>
-          </cell>
-          <cell r="B61">
-            <v>11</v>
-          </cell>
-          <cell r="C61">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>61</v>
-          </cell>
-          <cell r="B62">
-            <v>11</v>
-          </cell>
-          <cell r="C62">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>62</v>
-          </cell>
-          <cell r="B63">
-            <v>11</v>
-          </cell>
-          <cell r="C63">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>63</v>
-          </cell>
-          <cell r="B64">
-            <v>11</v>
-          </cell>
-          <cell r="C64">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>64</v>
-          </cell>
-          <cell r="B65">
-            <v>12</v>
-          </cell>
-          <cell r="C65">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>65</v>
-          </cell>
-          <cell r="B66">
-            <v>12</v>
-          </cell>
-          <cell r="C66">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>66</v>
-          </cell>
-          <cell r="B67">
-            <v>12</v>
-          </cell>
-          <cell r="C67">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>67</v>
-          </cell>
-          <cell r="B68">
-            <v>12</v>
-          </cell>
-          <cell r="C68">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>68</v>
-          </cell>
-          <cell r="B69">
-            <v>12</v>
-          </cell>
-          <cell r="C69">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>69</v>
-          </cell>
-          <cell r="B70">
-            <v>12</v>
-          </cell>
-          <cell r="C70">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>70</v>
-          </cell>
-          <cell r="B71">
-            <v>12</v>
-          </cell>
-          <cell r="C71">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>71</v>
-          </cell>
-          <cell r="B72">
-            <v>12</v>
-          </cell>
-          <cell r="C72">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>72</v>
-          </cell>
-          <cell r="B73">
-            <v>14</v>
-          </cell>
-          <cell r="C73">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>73</v>
-          </cell>
-          <cell r="B74">
-            <v>14</v>
-          </cell>
-          <cell r="C74">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>74</v>
-          </cell>
-          <cell r="B75">
-            <v>14</v>
-          </cell>
-          <cell r="C75">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>75</v>
-          </cell>
-          <cell r="B76">
-            <v>14</v>
-          </cell>
-          <cell r="C76">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>76</v>
-          </cell>
-          <cell r="B77">
-            <v>14</v>
-          </cell>
-          <cell r="C77">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>77</v>
-          </cell>
-          <cell r="B78">
-            <v>14</v>
-          </cell>
-          <cell r="C78">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>78</v>
-          </cell>
-          <cell r="B79">
-            <v>14</v>
-          </cell>
-          <cell r="C79">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>79</v>
-          </cell>
-          <cell r="B80">
-            <v>14</v>
-          </cell>
-          <cell r="C80">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>80</v>
-          </cell>
-          <cell r="B81">
-            <v>14</v>
-          </cell>
-          <cell r="C81">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>81</v>
-          </cell>
-          <cell r="B82">
-            <v>14</v>
-          </cell>
-          <cell r="C82">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>82</v>
-          </cell>
-          <cell r="B83">
-            <v>15</v>
-          </cell>
-          <cell r="C83">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>83</v>
-          </cell>
-          <cell r="B84">
-            <v>15</v>
-          </cell>
-          <cell r="C84">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>84</v>
-          </cell>
-          <cell r="B85">
-            <v>15</v>
-          </cell>
-          <cell r="C85">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>85</v>
-          </cell>
-          <cell r="B86">
-            <v>15</v>
-          </cell>
-          <cell r="C86">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>86</v>
-          </cell>
-          <cell r="B87">
-            <v>15</v>
-          </cell>
-          <cell r="C87">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>87</v>
-          </cell>
-          <cell r="B88">
-            <v>15</v>
-          </cell>
-          <cell r="C88">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>88</v>
-          </cell>
-          <cell r="B89">
-            <v>15</v>
-          </cell>
-          <cell r="C89">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>89</v>
-          </cell>
-          <cell r="B90">
-            <v>15</v>
-          </cell>
-          <cell r="C90">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>90</v>
-          </cell>
-          <cell r="B91">
-            <v>15</v>
-          </cell>
-          <cell r="C91">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>91</v>
-          </cell>
-          <cell r="B92">
-            <v>15</v>
-          </cell>
-          <cell r="C92">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>92</v>
-          </cell>
-          <cell r="B93">
-            <v>16</v>
-          </cell>
-          <cell r="C93">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>93</v>
-          </cell>
-          <cell r="B94">
-            <v>16</v>
-          </cell>
-          <cell r="C94">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>94</v>
-          </cell>
-          <cell r="B95">
-            <v>16</v>
-          </cell>
-          <cell r="C95">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>95</v>
-          </cell>
-          <cell r="B96">
-            <v>16</v>
-          </cell>
-          <cell r="C96">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>96</v>
-          </cell>
-          <cell r="B97">
-            <v>16</v>
-          </cell>
-          <cell r="C97">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>97</v>
-          </cell>
-          <cell r="B98">
-            <v>16</v>
-          </cell>
-          <cell r="C98">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>98</v>
-          </cell>
-          <cell r="B99">
-            <v>16</v>
-          </cell>
-          <cell r="C99">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>99</v>
-          </cell>
-          <cell r="B100">
-            <v>16</v>
-          </cell>
-          <cell r="C100">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>100</v>
-          </cell>
-          <cell r="B101">
-            <v>16</v>
-          </cell>
-          <cell r="C101">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>101</v>
-          </cell>
-          <cell r="B102">
-            <v>16</v>
-          </cell>
-          <cell r="C102">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>102</v>
-          </cell>
-          <cell r="B103">
-            <v>3</v>
-          </cell>
-          <cell r="C103">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>103</v>
-          </cell>
-          <cell r="B104">
-            <v>4</v>
-          </cell>
-          <cell r="C104">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>104</v>
-          </cell>
-          <cell r="B105">
-            <v>5</v>
-          </cell>
-          <cell r="C105">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>105</v>
-          </cell>
-          <cell r="B106">
-            <v>6</v>
-          </cell>
-          <cell r="C106">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>106</v>
-          </cell>
-          <cell r="B107">
-            <v>7</v>
-          </cell>
-          <cell r="C107">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>107</v>
-          </cell>
-          <cell r="B108">
-            <v>8</v>
-          </cell>
-          <cell r="C108">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>108</v>
-          </cell>
-          <cell r="B109">
-            <v>9</v>
-          </cell>
-          <cell r="C109">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>109</v>
-          </cell>
-          <cell r="B110">
-            <v>10</v>
-          </cell>
-          <cell r="C110">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>110</v>
-          </cell>
-          <cell r="B111">
-            <v>3</v>
-          </cell>
-          <cell r="C111">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>111</v>
-          </cell>
-          <cell r="B112">
-            <v>4</v>
-          </cell>
-          <cell r="C112">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>112</v>
-          </cell>
-          <cell r="B113">
-            <v>5</v>
-          </cell>
-          <cell r="C113">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>113</v>
-          </cell>
-          <cell r="B114">
-            <v>6</v>
-          </cell>
-          <cell r="C114">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>114</v>
-          </cell>
-          <cell r="B115">
-            <v>7</v>
-          </cell>
-          <cell r="C115">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>115</v>
-          </cell>
-          <cell r="B116">
-            <v>8</v>
-          </cell>
-          <cell r="C116">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>116</v>
-          </cell>
-          <cell r="B117">
-            <v>9</v>
-          </cell>
-          <cell r="C117">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>117</v>
-          </cell>
-          <cell r="B118">
-            <v>10</v>
-          </cell>
-          <cell r="C118">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>118</v>
-          </cell>
-          <cell r="B119">
-            <v>19</v>
-          </cell>
-          <cell r="C119">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>119</v>
-          </cell>
-          <cell r="B120">
-            <v>19</v>
-          </cell>
-          <cell r="C120">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>120</v>
-          </cell>
-          <cell r="B121">
-            <v>19</v>
-          </cell>
-          <cell r="C121">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>121</v>
-          </cell>
-          <cell r="B122">
-            <v>20</v>
-          </cell>
-          <cell r="C122">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>122</v>
-          </cell>
-          <cell r="B123">
-            <v>21</v>
-          </cell>
-          <cell r="C123">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>123</v>
-          </cell>
-          <cell r="B124">
-            <v>28</v>
-          </cell>
-          <cell r="C124">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>124</v>
-          </cell>
-          <cell r="B125">
-            <v>1</v>
-          </cell>
-          <cell r="C125">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>125</v>
-          </cell>
-          <cell r="B126">
-            <v>9</v>
-          </cell>
-          <cell r="C126">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>126</v>
-          </cell>
-          <cell r="B127">
-            <v>10</v>
-          </cell>
-          <cell r="C127">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>127</v>
-          </cell>
-          <cell r="B128">
-            <v>11</v>
-          </cell>
-          <cell r="C128">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>128</v>
-          </cell>
-          <cell r="B129">
-            <v>12</v>
-          </cell>
-          <cell r="C129">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>129</v>
-          </cell>
-          <cell r="B130">
-            <v>6</v>
-          </cell>
-          <cell r="C130">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>130</v>
-          </cell>
-          <cell r="B131">
-            <v>7</v>
-          </cell>
-          <cell r="C131">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>131</v>
-          </cell>
-          <cell r="B132">
-            <v>8</v>
-          </cell>
-          <cell r="C132">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>132</v>
-          </cell>
-          <cell r="B133">
-            <v>9</v>
-          </cell>
-          <cell r="C133">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>133</v>
-          </cell>
-          <cell r="B134">
-            <v>10</v>
-          </cell>
-          <cell r="C134">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>134</v>
-          </cell>
-          <cell r="B135">
-            <v>11</v>
-          </cell>
-          <cell r="C135">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>135</v>
-          </cell>
-          <cell r="B136">
-            <v>12</v>
-          </cell>
-          <cell r="C136">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>136</v>
-          </cell>
-          <cell r="B137">
-            <v>8</v>
-          </cell>
-          <cell r="C137">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>137</v>
-          </cell>
-          <cell r="B138">
-            <v>9</v>
-          </cell>
-          <cell r="C138">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>138</v>
-          </cell>
-          <cell r="B139">
-            <v>10</v>
-          </cell>
-          <cell r="C139">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>139</v>
-          </cell>
-          <cell r="B140">
-            <v>11</v>
-          </cell>
-          <cell r="C140">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>140</v>
-          </cell>
-          <cell r="B141">
-            <v>12</v>
-          </cell>
-          <cell r="C141">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>141</v>
-          </cell>
-          <cell r="B142">
-            <v>29</v>
-          </cell>
-          <cell r="C142">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>142</v>
-          </cell>
-          <cell r="B143">
-            <v>29</v>
-          </cell>
-          <cell r="C143">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>143</v>
-          </cell>
-          <cell r="B144">
-            <v>29</v>
-          </cell>
-          <cell r="C144">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>144</v>
-          </cell>
-          <cell r="B145">
-            <v>29</v>
-          </cell>
-          <cell r="C145">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="B146">
-            <v>30</v>
-          </cell>
-          <cell r="C146">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="B147">
-            <v>30</v>
-          </cell>
-          <cell r="C147">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="B148">
-            <v>30</v>
-          </cell>
-          <cell r="C148">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="B149">
-            <v>30</v>
-          </cell>
-          <cell r="C149">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="B150">
-            <v>31</v>
-          </cell>
-          <cell r="C150">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="B151">
-            <v>31</v>
-          </cell>
-          <cell r="C151">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152">
-            <v>31</v>
-          </cell>
-          <cell r="C152">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153">
-            <v>5</v>
-          </cell>
-          <cell r="C153">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="B154">
-            <v>6</v>
-          </cell>
-          <cell r="C154">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155">
-            <v>7</v>
-          </cell>
-          <cell r="C155">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="B156">
-            <v>8</v>
-          </cell>
-          <cell r="C156">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="B157">
-            <v>9</v>
-          </cell>
-          <cell r="C157">
-            <v>30</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>id|编号</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>acti_type|活动类型</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>show|显隐1显0隐</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2">
-            <v>1</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3">
-            <v>2</v>
-          </cell>
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4">
-            <v>3</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5">
-            <v>4</v>
-          </cell>
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6">
-            <v>5</v>
-          </cell>
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7">
-            <v>4</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>7</v>
-          </cell>
-          <cell r="B8">
-            <v>1</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>8</v>
-          </cell>
-          <cell r="B9">
-            <v>4</v>
-          </cell>
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>9</v>
-          </cell>
-          <cell r="B10">
-            <v>5</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>10</v>
-          </cell>
-          <cell r="B11">
-            <v>5</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>11</v>
-          </cell>
-          <cell r="B12">
-            <v>7</v>
-          </cell>
-          <cell r="D12">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>12</v>
-          </cell>
-          <cell r="B13">
-            <v>7</v>
-          </cell>
-          <cell r="D13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>13</v>
-          </cell>
-          <cell r="B14">
-            <v>8</v>
-          </cell>
-          <cell r="D14">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>14</v>
-          </cell>
-          <cell r="B15">
-            <v>8</v>
-          </cell>
-          <cell r="D15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>15</v>
-          </cell>
-          <cell r="B16">
-            <v>9</v>
-          </cell>
-          <cell r="D16">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>16</v>
-          </cell>
-          <cell r="B17">
-            <v>9</v>
-          </cell>
-          <cell r="D17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>17</v>
-          </cell>
-          <cell r="B18">
-            <v>10</v>
-          </cell>
-          <cell r="D18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>18</v>
-          </cell>
-          <cell r="B19">
-            <v>18</v>
-          </cell>
-          <cell r="D19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>19</v>
-          </cell>
-          <cell r="B20">
-            <v>17</v>
-          </cell>
-          <cell r="D20">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>20</v>
-          </cell>
-          <cell r="B21">
-            <v>19</v>
-          </cell>
-          <cell r="D21">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>21</v>
-          </cell>
-          <cell r="B22">
-            <v>20</v>
-          </cell>
-          <cell r="D22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>22</v>
-          </cell>
-          <cell r="B23">
-            <v>20</v>
-          </cell>
-          <cell r="D23">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>23</v>
-          </cell>
-          <cell r="B24">
-            <v>20</v>
-          </cell>
-          <cell r="D24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>24</v>
-          </cell>
-          <cell r="B25">
-            <v>20</v>
-          </cell>
-          <cell r="D25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>25</v>
-          </cell>
-          <cell r="B26">
-            <v>26</v>
-          </cell>
-          <cell r="D26">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>26</v>
-          </cell>
-          <cell r="B27">
-            <v>27</v>
-          </cell>
-          <cell r="D27">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>27</v>
-          </cell>
-          <cell r="B28">
-            <v>9</v>
-          </cell>
-          <cell r="D28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>28</v>
-          </cell>
-          <cell r="B29">
-            <v>9</v>
-          </cell>
-          <cell r="D29">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>29</v>
-          </cell>
-          <cell r="B30">
-            <v>9</v>
-          </cell>
-          <cell r="D30">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>30</v>
-          </cell>
-          <cell r="B31">
-            <v>9</v>
-          </cell>
-          <cell r="D31">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2625,8 +2830,8 @@
   <dimension ref="A1:D183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q169" sqref="Q169"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2661,9 +2866,9 @@
         <f>[1]use_fish!$B2</f>
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C2),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2675,9 +2880,9 @@
         <f>[1]use_fish!$B3</f>
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C3),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2689,9 +2894,9 @@
         <f>[1]use_fish!$B4</f>
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C4),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2703,9 +2908,9 @@
         <f>[1]use_fish!$B5</f>
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C5),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2717,9 +2922,9 @@
         <f>[1]use_fish!$B6</f>
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C6),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2731,9 +2936,9 @@
         <f>[1]use_fish!$B7</f>
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C7),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2745,9 +2950,9 @@
         <f>[1]use_fish!$B8</f>
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C8),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2759,9 +2964,9 @@
         <f>[1]use_fish!$B9</f>
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C9),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2773,9 +2978,9 @@
         <f>[1]use_fish!$B10</f>
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C10),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2787,9 +2992,9 @@
         <f>[1]use_fish!$B11</f>
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="str">
+      <c r="C11" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C11),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2801,9 +3006,9 @@
         <f>[1]use_fish!$B12</f>
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C12),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2815,9 +3020,9 @@
         <f>[1]use_fish!$B13</f>
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C13" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C13),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2829,9 +3034,9 @@
         <f>[1]use_fish!$B14</f>
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C14" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C14),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2843,9 +3048,9 @@
         <f>[1]use_fish!$B15</f>
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="str">
+      <c r="C15" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C15),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2857,9 +3062,9 @@
         <f>[1]use_fish!$B16</f>
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="str">
+      <c r="C16" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C16),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2871,9 +3076,9 @@
         <f>[1]use_fish!$B17</f>
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="str">
+      <c r="C17" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C17),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2885,9 +3090,9 @@
         <f>[1]use_fish!$B18</f>
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="str">
+      <c r="C18" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C18),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2899,9 +3104,9 @@
         <f>[1]use_fish!$B19</f>
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="str">
+      <c r="C19" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C19),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4338,9 +4543,9 @@
         <f>[1]use_fish!$B122</f>
         <v>20</v>
       </c>
-      <c r="C122" s="1" t="str">
+      <c r="C122" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C122),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -4352,9 +4557,9 @@
         <f>[1]use_fish!$B123</f>
         <v>21</v>
       </c>
-      <c r="C123" s="1" t="str">
+      <c r="C123" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C123),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -4366,9 +4571,9 @@
         <f>[1]use_fish!$B124</f>
         <v>28</v>
       </c>
-      <c r="C124" s="1" t="str">
+      <c r="C124" s="1" t="e">
         <f>IF(ISBLANK([1]use_fish!$C124),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -4667,6 +4872,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
+        <f>[1]use_fish!$A146</f>
         <v>145</v>
       </c>
       <c r="B146" s="4">
@@ -4680,6 +4886,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
+        <f>[1]use_fish!$A147</f>
         <v>146</v>
       </c>
       <c r="B147" s="4">
@@ -4693,6 +4900,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
+        <f>[1]use_fish!$A148</f>
         <v>147</v>
       </c>
       <c r="B148" s="4">
@@ -4706,6 +4914,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
+        <f>[1]use_fish!$A149</f>
         <v>148</v>
       </c>
       <c r="B149" s="4">
@@ -4717,395 +4926,452 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="5">
+    <row r="150" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <f>[1]use_fish!$A150</f>
         <v>149</v>
       </c>
-      <c r="B150" s="6">
+      <c r="B150" s="4">
         <f>[1]use_fish!$B150</f>
         <v>31</v>
       </c>
-      <c r="C150" s="7" t="str">
+      <c r="C150" s="5" t="str">
         <f>IF(ISBLANK([1]use_fish!$C150),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="5">
+    <row r="151" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <f>[1]use_fish!$A151</f>
         <v>150</v>
       </c>
-      <c r="B151" s="6">
+      <c r="B151" s="4">
         <f>[1]use_fish!$B151</f>
         <v>31</v>
       </c>
-      <c r="C151" s="7" t="str">
+      <c r="C151" s="5" t="str">
         <f>IF(ISBLANK([1]use_fish!$C151),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D151" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="5">
+    <row r="152" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <f>[1]use_fish!$A152</f>
         <v>151</v>
       </c>
-      <c r="B152" s="6">
+      <c r="B152" s="4">
         <f>[1]use_fish!$B152</f>
         <v>31</v>
       </c>
-      <c r="C152" s="7" t="str">
+      <c r="C152" s="5" t="str">
         <f>IF(ISBLANK([1]use_fish!$C152),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D152" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="5">
+    <row r="153" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <f>[1]use_fish!$A153</f>
         <v>152</v>
       </c>
-      <c r="B153" s="6">
+      <c r="B153" s="4">
         <f>[1]use_fish!$B153</f>
         <v>5</v>
       </c>
-      <c r="C153" s="7">
+      <c r="C153" s="5">
         <f>IF(ISBLANK([1]use_fish!$C153),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D153" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="5">
+    <row r="154" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <f>[1]use_fish!$A154</f>
         <v>153</v>
       </c>
-      <c r="B154" s="6">
+      <c r="B154" s="4">
         <f>[1]use_fish!$B154</f>
         <v>6</v>
       </c>
-      <c r="C154" s="7">
+      <c r="C154" s="5">
         <f>IF(ISBLANK([1]use_fish!$C154),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D154" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="5">
+    <row r="155" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <f>[1]use_fish!$A155</f>
         <v>154</v>
       </c>
-      <c r="B155" s="6">
+      <c r="B155" s="4">
         <f>[1]use_fish!$B155</f>
         <v>7</v>
       </c>
-      <c r="C155" s="7">
+      <c r="C155" s="5">
         <f>IF(ISBLANK([1]use_fish!$C155),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="5">
+    <row r="156" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <f>[1]use_fish!$A156</f>
         <v>155</v>
       </c>
-      <c r="B156" s="6">
+      <c r="B156" s="4">
         <f>[1]use_fish!$B156</f>
         <v>8</v>
       </c>
-      <c r="C156" s="7">
+      <c r="C156" s="5">
         <f>IF(ISBLANK([1]use_fish!$C156),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D156" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="5">
+    <row r="157" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <f>[1]use_fish!$A157</f>
         <v>156</v>
       </c>
-      <c r="B157" s="6">
+      <c r="B157" s="4">
         <f>[1]use_fish!$B157</f>
         <v>9</v>
       </c>
-      <c r="C157" s="7">
+      <c r="C157" s="5">
         <f>IF(ISBLANK([1]use_fish!$C157),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D157" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="12">
+    <row r="158" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <f>[1]use_fish!$A158</f>
         <v>157</v>
       </c>
-      <c r="B158" s="11">
+      <c r="B158" s="4">
+        <f>[1]use_fish!$B158</f>
         <v>6</v>
       </c>
-      <c r="C158" s="13">
+      <c r="C158" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="12">
+    <row r="159" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <f>[1]use_fish!$A159</f>
         <v>158</v>
       </c>
-      <c r="B159" s="11">
+      <c r="B159" s="4">
+        <f>[1]use_fish!$B159</f>
         <v>7</v>
       </c>
-      <c r="C159" s="13">
+      <c r="C159" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="12">
+    <row r="160" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <f>[1]use_fish!$A160</f>
         <v>159</v>
       </c>
-      <c r="B160" s="11">
+      <c r="B160" s="4">
+        <f>[1]use_fish!$B160</f>
         <v>8</v>
       </c>
-      <c r="C160" s="13">
+      <c r="C160" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="12">
+    <row r="161" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <f>[1]use_fish!$A161</f>
         <v>160</v>
       </c>
-      <c r="B161" s="11">
+      <c r="B161" s="4">
+        <f>[1]use_fish!$B161</f>
         <v>9</v>
       </c>
-      <c r="C161" s="13">
+      <c r="C161" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="12">
+    <row r="162" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <f>[1]use_fish!$A162</f>
         <v>161</v>
       </c>
-      <c r="B162" s="11">
+      <c r="B162" s="4">
+        <f>[1]use_fish!$B162</f>
         <v>10</v>
       </c>
-      <c r="C162" s="13">
+      <c r="C162" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="12">
+    <row r="163" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <f>[1]use_fish!$A163</f>
         <v>162</v>
       </c>
-      <c r="B163" s="11">
+      <c r="B163" s="4">
+        <f>[1]use_fish!$B163</f>
         <v>32</v>
       </c>
-      <c r="C163" s="13"/>
-    </row>
-    <row r="164" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="12">
+      <c r="C163" s="7"/>
+    </row>
+    <row r="164" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <f>[1]use_fish!$A164</f>
         <v>163</v>
       </c>
-      <c r="B164" s="11">
+      <c r="B164" s="4">
+        <f>[1]use_fish!$B164</f>
         <v>32</v>
       </c>
-      <c r="C164" s="13"/>
-    </row>
-    <row r="165" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="12">
+      <c r="C164" s="7"/>
+    </row>
+    <row r="165" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <f>[1]use_fish!$A165</f>
         <v>164</v>
       </c>
-      <c r="B165" s="11">
+      <c r="B165" s="4">
+        <f>[1]use_fish!$B165</f>
         <v>32</v>
       </c>
-      <c r="C165" s="13"/>
-    </row>
-    <row r="166" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="8">
+      <c r="C165" s="7"/>
+    </row>
+    <row r="166" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <f>[1]use_fish!$A166</f>
         <v>165</v>
       </c>
-      <c r="B166" s="10">
+      <c r="B166" s="4">
+        <f>[1]use_fish!$B166</f>
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="8">
+    <row r="167" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <f>[1]use_fish!$A167</f>
         <v>166</v>
       </c>
-      <c r="B167" s="10">
+      <c r="B167" s="4">
+        <f>[1]use_fish!$B167</f>
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="12">
+    <row r="168" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <f>[1]use_fish!$A168</f>
         <v>167</v>
       </c>
-      <c r="B168" s="11">
+      <c r="B168" s="4">
+        <f>[1]use_fish!$B168</f>
         <v>6</v>
       </c>
-      <c r="C168" s="13">
+      <c r="C168" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="12">
+    <row r="169" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <f>[1]use_fish!$A169</f>
         <v>168</v>
       </c>
-      <c r="B169" s="11">
+      <c r="B169" s="4">
+        <f>[1]use_fish!$B169</f>
         <v>7</v>
       </c>
-      <c r="C169" s="13">
+      <c r="C169" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="12">
+      <c r="A170" s="3">
+        <f>[1]use_fish!$A170</f>
         <v>169</v>
       </c>
-      <c r="B170" s="11">
+      <c r="B170" s="4">
+        <f>[1]use_fish!$B170</f>
         <v>8</v>
       </c>
-      <c r="C170" s="13">
+      <c r="C170" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="12">
+      <c r="A171" s="3">
+        <f>[1]use_fish!$A171</f>
         <v>170</v>
       </c>
-      <c r="B171" s="11">
+      <c r="B171" s="4">
+        <f>[1]use_fish!$B171</f>
         <v>9</v>
       </c>
-      <c r="C171" s="13">
+      <c r="C171" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="12">
+      <c r="A172" s="3">
+        <f>[1]use_fish!$A172</f>
         <v>171</v>
       </c>
-      <c r="B172" s="11">
+      <c r="B172" s="4">
+        <f>[1]use_fish!$B172</f>
         <v>10</v>
       </c>
-      <c r="C172" s="13">
+      <c r="C172" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="12">
+      <c r="A173" s="3">
+        <f>[1]use_fish!$A173</f>
         <v>172</v>
       </c>
-      <c r="B173" s="11">
+      <c r="B173" s="4">
+        <f>[1]use_fish!$B173</f>
         <v>34</v>
       </c>
-      <c r="C173" s="13"/>
+      <c r="C173" s="7"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="12">
+      <c r="A174" s="3">
+        <f>[1]use_fish!$A174</f>
         <v>173</v>
       </c>
-      <c r="B174" s="11">
+      <c r="B174" s="4">
+        <f>[1]use_fish!$B174</f>
         <v>34</v>
       </c>
-      <c r="C174" s="13"/>
+      <c r="C174" s="7"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="12">
+      <c r="A175" s="3">
+        <f>[1]use_fish!$A175</f>
         <v>174</v>
       </c>
-      <c r="B175" s="11">
+      <c r="B175" s="4">
+        <f>[1]use_fish!$B175</f>
         <v>34</v>
       </c>
-      <c r="C175" s="13"/>
+      <c r="C175" s="7"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="14">
+      <c r="A176" s="3">
+        <f>[1]use_fish!$A176</f>
         <v>175</v>
       </c>
-      <c r="B176" s="15">
+      <c r="B176" s="4">
+        <f>[1]use_fish!$B176</f>
         <v>6</v>
       </c>
-      <c r="C176" s="16">
+      <c r="C176" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="14">
+      <c r="A177" s="3">
+        <f>[1]use_fish!$A177</f>
         <v>176</v>
       </c>
-      <c r="B177" s="15">
+      <c r="B177" s="4">
+        <f>[1]use_fish!$B177</f>
         <v>7</v>
       </c>
-      <c r="C177" s="16">
+      <c r="C177" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="14">
+      <c r="A178" s="3">
+        <f>[1]use_fish!$A178</f>
         <v>177</v>
       </c>
-      <c r="B178" s="15">
+      <c r="B178" s="4">
+        <f>[1]use_fish!$B178</f>
         <v>8</v>
       </c>
-      <c r="C178" s="16">
+      <c r="C178" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="14">
+      <c r="A179" s="3">
+        <f>[1]use_fish!$A179</f>
         <v>178</v>
       </c>
-      <c r="B179" s="15">
+      <c r="B179" s="4">
+        <f>[1]use_fish!$B179</f>
         <v>9</v>
       </c>
-      <c r="C179" s="16">
+      <c r="C179" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="14">
+      <c r="A180" s="3">
+        <f>[1]use_fish!$A180</f>
         <v>179</v>
       </c>
-      <c r="B180" s="15">
+      <c r="B180" s="4">
+        <f>[1]use_fish!$B180</f>
         <v>10</v>
       </c>
-      <c r="C180" s="16">
+      <c r="C180" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="14">
+      <c r="A181" s="3">
+        <f>[1]use_fish!$A181</f>
         <v>180</v>
       </c>
-      <c r="B181" s="15">
+      <c r="B181" s="4">
         <v>35</v>
       </c>
-      <c r="C181" s="16"/>
+      <c r="C181" s="8"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="14">
+      <c r="A182" s="3">
+        <f>[1]use_fish!$A182</f>
         <v>181</v>
       </c>
-      <c r="B182" s="15">
+      <c r="B182" s="4">
         <v>35</v>
       </c>
-      <c r="C182" s="16"/>
+      <c r="C182" s="8"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="14">
+      <c r="A183" s="3">
+        <f>[1]use_fish!$A183</f>
         <v>182</v>
       </c>
-      <c r="B183" s="15">
+      <c r="B183" s="4">
         <v>35</v>
       </c>
-      <c r="C183" s="16"/>
+      <c r="C183" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_Release/fish_use_config.xlsx
+++ b/config_Release/fish_use_config.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>attr_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,6 +85,9 @@
   <si>
     <t>actp_031_xxy_show</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_no_vivo</t>
   </si>
 </sst>
 </file>
@@ -2830,8 +2833,8 @@
   <dimension ref="A1:D183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D185" sqref="D185"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5101,7 +5104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <f>[1]use_fish!$A161</f>
         <v>160</v>
@@ -5114,7 +5117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <f>[1]use_fish!$A162</f>
         <v>161</v>
@@ -5127,7 +5130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <f>[1]use_fish!$A163</f>
         <v>162</v>
@@ -5138,7 +5141,7 @@
       </c>
       <c r="C163" s="7"/>
     </row>
-    <row r="164" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <f>[1]use_fish!$A164</f>
         <v>163</v>
@@ -5149,7 +5152,7 @@
       </c>
       <c r="C164" s="7"/>
     </row>
-    <row r="165" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <f>[1]use_fish!$A165</f>
         <v>164</v>
@@ -5160,7 +5163,7 @@
       </c>
       <c r="C165" s="7"/>
     </row>
-    <row r="166" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <f>[1]use_fish!$A166</f>
         <v>165</v>
@@ -5170,7 +5173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <f>[1]use_fish!$A167</f>
         <v>166</v>
@@ -5180,7 +5183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <f>[1]use_fish!$A168</f>
         <v>167</v>
@@ -5193,7 +5196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <f>[1]use_fish!$A169</f>
         <v>168</v>
@@ -5206,7 +5209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <f>[1]use_fish!$A170</f>
         <v>169</v>
@@ -5218,8 +5221,9 @@
       <c r="C170" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170" s="6"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <f>[1]use_fish!$A171</f>
         <v>170</v>
@@ -5231,8 +5235,9 @@
       <c r="C171" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171" s="6"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <f>[1]use_fish!$A172</f>
         <v>171</v>
@@ -5244,8 +5249,9 @@
       <c r="C172" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172" s="6"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <f>[1]use_fish!$A173</f>
         <v>172</v>
@@ -5255,8 +5261,9 @@
         <v>34</v>
       </c>
       <c r="C173" s="7"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173" s="6"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <f>[1]use_fish!$A174</f>
         <v>173</v>
@@ -5266,8 +5273,9 @@
         <v>34</v>
       </c>
       <c r="C174" s="7"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D174" s="6"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <f>[1]use_fish!$A175</f>
         <v>174</v>
@@ -5277,8 +5285,9 @@
         <v>34</v>
       </c>
       <c r="C175" s="7"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D175" s="6"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <f>[1]use_fish!$A176</f>
         <v>175</v>
@@ -5290,8 +5299,11 @@
       <c r="C176" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D176" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <f>[1]use_fish!$A177</f>
         <v>176</v>
@@ -5303,8 +5315,11 @@
       <c r="C177" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D177" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <f>[1]use_fish!$A178</f>
         <v>177</v>
@@ -5316,8 +5331,11 @@
       <c r="C178" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D178" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <f>[1]use_fish!$A179</f>
         <v>178</v>
@@ -5329,8 +5347,11 @@
       <c r="C179" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D179" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <f>[1]use_fish!$A180</f>
         <v>179</v>
@@ -5342,8 +5363,11 @@
       <c r="C180" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D180" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <f>[1]use_fish!$A181</f>
         <v>180</v>
@@ -5352,8 +5376,11 @@
         <v>35</v>
       </c>
       <c r="C181" s="8"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D181" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <f>[1]use_fish!$A182</f>
         <v>181</v>
@@ -5362,8 +5389,11 @@
         <v>35</v>
       </c>
       <c r="C182" s="8"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D182" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <f>[1]use_fish!$A183</f>
         <v>182</v>
@@ -5372,6 +5402,9 @@
         <v>35</v>
       </c>
       <c r="C183" s="8"/>
+      <c r="D183" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_Release/fish_use_config.xlsx
+++ b/config_Release/fish_use_config.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>attr_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,9 +85,6 @@
   <si>
     <t>actp_031_xxy_show</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_no_vivo</t>
   </si>
 </sst>
 </file>
@@ -146,7 +143,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,12 +165,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,7 +200,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -230,9 +221,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2834,7 +2822,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G180" sqref="G180"/>
+      <selection pane="bottomLeft" activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5296,12 +5284,10 @@
         <f>[1]use_fish!$B176</f>
         <v>6</v>
       </c>
-      <c r="C176" s="8">
+      <c r="C176" s="6">
         <v>9</v>
       </c>
-      <c r="D176" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D176" s="6"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
@@ -5312,12 +5298,10 @@
         <f>[1]use_fish!$B177</f>
         <v>7</v>
       </c>
-      <c r="C177" s="8">
+      <c r="C177" s="6">
         <v>9</v>
       </c>
-      <c r="D177" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D177" s="6"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
@@ -5328,12 +5312,10 @@
         <f>[1]use_fish!$B178</f>
         <v>8</v>
       </c>
-      <c r="C178" s="8">
+      <c r="C178" s="6">
         <v>9</v>
       </c>
-      <c r="D178" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D178" s="6"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
@@ -5344,12 +5326,10 @@
         <f>[1]use_fish!$B179</f>
         <v>9</v>
       </c>
-      <c r="C179" s="8">
+      <c r="C179" s="6">
         <v>9</v>
       </c>
-      <c r="D179" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D179" s="6"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
@@ -5360,12 +5340,10 @@
         <f>[1]use_fish!$B180</f>
         <v>10</v>
       </c>
-      <c r="C180" s="8">
+      <c r="C180" s="6">
         <v>9</v>
       </c>
-      <c r="D180" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D180" s="6"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
@@ -5375,10 +5353,8 @@
       <c r="B181" s="4">
         <v>35</v>
       </c>
-      <c r="C181" s="8"/>
-      <c r="D181" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
@@ -5388,10 +5364,8 @@
       <c r="B182" s="4">
         <v>35</v>
       </c>
-      <c r="C182" s="8"/>
-      <c r="D182" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
@@ -5401,10 +5375,8 @@
       <c r="B183" s="4">
         <v>35</v>
       </c>
-      <c r="C183" s="8"/>
-      <c r="D183" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_Release/fish_use_config.xlsx
+++ b/config_Release/fish_use_config.xlsx
@@ -200,7 +200,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -222,6 +222,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2178,15 +2181,128 @@
           <cell r="A181">
             <v>180</v>
           </cell>
+          <cell r="B181">
+            <v>35</v>
+          </cell>
         </row>
         <row r="182">
           <cell r="A182">
             <v>181</v>
           </cell>
+          <cell r="B182">
+            <v>35</v>
+          </cell>
         </row>
         <row r="183">
           <cell r="A183">
             <v>182</v>
+          </cell>
+          <cell r="B183">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="A184">
+            <v>183</v>
+          </cell>
+          <cell r="B184">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="A185">
+            <v>184</v>
+          </cell>
+          <cell r="B185">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="A186">
+            <v>185</v>
+          </cell>
+          <cell r="B186">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="A187">
+            <v>186</v>
+          </cell>
+          <cell r="B187">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188">
+            <v>187</v>
+          </cell>
+          <cell r="B188">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="A189">
+            <v>188</v>
+          </cell>
+          <cell r="B189">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="A190">
+            <v>189</v>
+          </cell>
+          <cell r="B190">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="A191">
+            <v>190</v>
+          </cell>
+          <cell r="B191">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="B192">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="B193">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="B194">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="B195">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="B196">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="B197">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="B198">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="B199">
+            <v>35</v>
           </cell>
         </row>
       </sheetData>
@@ -2818,11 +2934,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D183"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D184" sqref="D184"/>
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D194" sqref="D194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5351,6 +5467,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="4">
+        <f>[1]use_fish!$B181</f>
         <v>35</v>
       </c>
       <c r="C181" s="6"/>
@@ -5362,6 +5479,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="4">
+        <f>[1]use_fish!$B182</f>
         <v>35</v>
       </c>
       <c r="C182" s="6"/>
@@ -5373,10 +5491,241 @@
         <v>182</v>
       </c>
       <c r="B183" s="4">
+        <f>[1]use_fish!$B183</f>
         <v>35</v>
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <f>[1]use_fish!$A184</f>
+        <v>183</v>
+      </c>
+      <c r="B184" s="4">
+        <f>[1]use_fish!$B184</f>
+        <v>6</v>
+      </c>
+      <c r="C184" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <f>[1]use_fish!$A185</f>
+        <v>184</v>
+      </c>
+      <c r="B185" s="4">
+        <f>[1]use_fish!$B185</f>
+        <v>7</v>
+      </c>
+      <c r="C185" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <f>[1]use_fish!$A186</f>
+        <v>185</v>
+      </c>
+      <c r="B186" s="4">
+        <f>[1]use_fish!$B186</f>
+        <v>8</v>
+      </c>
+      <c r="C186" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <f>[1]use_fish!$A187</f>
+        <v>186</v>
+      </c>
+      <c r="B187" s="4">
+        <f>[1]use_fish!$B187</f>
+        <v>9</v>
+      </c>
+      <c r="C187" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <f>[1]use_fish!$A188</f>
+        <v>187</v>
+      </c>
+      <c r="B188" s="4">
+        <f>[1]use_fish!$B188</f>
+        <v>10</v>
+      </c>
+      <c r="C188" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <f>[1]use_fish!$A189</f>
+        <v>188</v>
+      </c>
+      <c r="B189" s="4">
+        <f>[1]use_fish!$B189</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <f>[1]use_fish!$A190</f>
+        <v>189</v>
+      </c>
+      <c r="B190" s="4">
+        <f>[1]use_fish!$B190</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <f>[1]use_fish!$A191</f>
+        <v>190</v>
+      </c>
+      <c r="B191" s="4">
+        <f>[1]use_fish!$B191</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="8">
+        <v>191</v>
+      </c>
+      <c r="B192" s="4">
+        <f>[1]use_fish!$B192</f>
+        <v>6</v>
+      </c>
+      <c r="C192" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="8">
+        <v>192</v>
+      </c>
+      <c r="B193" s="4">
+        <f>[1]use_fish!$B193</f>
+        <v>7</v>
+      </c>
+      <c r="C193" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="8">
+        <v>193</v>
+      </c>
+      <c r="B194" s="4">
+        <f>[1]use_fish!$B194</f>
+        <v>8</v>
+      </c>
+      <c r="C194" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="8">
+        <v>194</v>
+      </c>
+      <c r="B195" s="4">
+        <f>[1]use_fish!$B195</f>
+        <v>9</v>
+      </c>
+      <c r="C195" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="8">
+        <v>195</v>
+      </c>
+      <c r="B196" s="4">
+        <f>[1]use_fish!$B196</f>
+        <v>10</v>
+      </c>
+      <c r="C196" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="8">
+        <v>196</v>
+      </c>
+      <c r="B197" s="4">
+        <f>[1]use_fish!$B197</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="8">
+        <v>197</v>
+      </c>
+      <c r="B198" s="4">
+        <f>[1]use_fish!$B198</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="8">
+        <v>198</v>
+      </c>
+      <c r="B199" s="4">
+        <f>[1]use_fish!$B199</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="3"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="3"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="3"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="3"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="3"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="3"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="3"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="3"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="3"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="3"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="3"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="3"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="3"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="3"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="3"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_Release/fish_use_config.xlsx
+++ b/config_Release/fish_use_config.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="14">
   <si>
     <t>attr_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,6 +77,7 @@
   </si>
   <si>
     <t>actp_031_xxy_show</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>actp_031_xxy_show</t>
@@ -84,6 +85,33 @@
   </si>
   <si>
     <t>actp_031_xxy_show</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjby_drop_limit</t>
+  </si>
+  <si>
+    <t>jjby_drop_limit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjby_drop_limit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjby_drop_limit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjby_drop_limit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjby_drop_limit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjby_drop_limit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2937,8 +2965,8 @@
   <dimension ref="A1:D215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D194" sqref="D194"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5047,7 +5075,7 @@
         <v/>
       </c>
       <c r="D150" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5064,7 +5092,7 @@
         <v/>
       </c>
       <c r="D151" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5081,7 +5109,7 @@
         <v/>
       </c>
       <c r="D152" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5098,7 +5126,7 @@
         <v>9</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5115,7 +5143,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5132,7 +5160,7 @@
         <v>9</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5149,7 +5177,7 @@
         <v>9</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5166,7 +5194,7 @@
         <v>9</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -5181,6 +5209,9 @@
       <c r="C158" s="7">
         <v>9</v>
       </c>
+      <c r="D158" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="159" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
@@ -5194,6 +5225,9 @@
       <c r="C159" s="7">
         <v>9</v>
       </c>
+      <c r="D159" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="160" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
@@ -5207,6 +5241,9 @@
       <c r="C160" s="7">
         <v>9</v>
       </c>
+      <c r="D160" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="161" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
@@ -5220,6 +5257,9 @@
       <c r="C161" s="7">
         <v>9</v>
       </c>
+      <c r="D161" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="162" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
@@ -5233,6 +5273,9 @@
       <c r="C162" s="7">
         <v>9</v>
       </c>
+      <c r="D162" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="163" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
@@ -5299,6 +5342,9 @@
       <c r="C168" s="7">
         <v>9</v>
       </c>
+      <c r="D168" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="169" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
@@ -5312,6 +5358,9 @@
       <c r="C169" s="7">
         <v>9</v>
       </c>
+      <c r="D169" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
@@ -5325,7 +5374,9 @@
       <c r="C170" s="7">
         <v>9</v>
       </c>
-      <c r="D170" s="6"/>
+      <c r="D170" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
@@ -5339,7 +5390,9 @@
       <c r="C171" s="7">
         <v>9</v>
       </c>
-      <c r="D171" s="6"/>
+      <c r="D171" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
@@ -5353,7 +5406,9 @@
       <c r="C172" s="7">
         <v>9</v>
       </c>
-      <c r="D172" s="6"/>
+      <c r="D172" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
@@ -5403,7 +5458,9 @@
       <c r="C176" s="6">
         <v>9</v>
       </c>
-      <c r="D176" s="6"/>
+      <c r="D176" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
@@ -5417,7 +5474,9 @@
       <c r="C177" s="6">
         <v>9</v>
       </c>
-      <c r="D177" s="6"/>
+      <c r="D177" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
@@ -5431,7 +5490,9 @@
       <c r="C178" s="6">
         <v>9</v>
       </c>
-      <c r="D178" s="6"/>
+      <c r="D178" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
@@ -5445,7 +5506,9 @@
       <c r="C179" s="6">
         <v>9</v>
       </c>
-      <c r="D179" s="6"/>
+      <c r="D179" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
@@ -5459,7 +5522,9 @@
       <c r="C180" s="6">
         <v>9</v>
       </c>
-      <c r="D180" s="6"/>
+      <c r="D180" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
@@ -5509,6 +5574,9 @@
       <c r="C184" s="1">
         <v>9</v>
       </c>
+      <c r="D184" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
@@ -5522,6 +5590,9 @@
       <c r="C185" s="1">
         <v>9</v>
       </c>
+      <c r="D185" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
@@ -5535,6 +5606,9 @@
       <c r="C186" s="1">
         <v>9</v>
       </c>
+      <c r="D186" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
@@ -5548,6 +5622,9 @@
       <c r="C187" s="1">
         <v>9</v>
       </c>
+      <c r="D187" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
@@ -5561,6 +5638,9 @@
       <c r="C188" s="1">
         <v>9</v>
       </c>
+      <c r="D188" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
@@ -5603,8 +5683,11 @@
       <c r="C192" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D192" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="8">
         <v>192</v>
       </c>
@@ -5615,8 +5698,11 @@
       <c r="C193" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D193" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="8">
         <v>193</v>
       </c>
@@ -5627,8 +5713,11 @@
       <c r="C194" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D194" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="8">
         <v>194</v>
       </c>
@@ -5639,8 +5728,11 @@
       <c r="C195" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D195" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="8">
         <v>195</v>
       </c>
@@ -5651,8 +5743,11 @@
       <c r="C196" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D196" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="8">
         <v>196</v>
       </c>
@@ -5661,7 +5756,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="8">
         <v>197</v>
       </c>
@@ -5670,7 +5765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="8">
         <v>198</v>
       </c>
@@ -5679,31 +5774,31 @@
         <v>35</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_use_config.xlsx
+++ b/config_Release/fish_use_config.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>attr_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,33 +85,6 @@
   </si>
   <si>
     <t>actp_031_xxy_show</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jjby_drop_limit</t>
-  </si>
-  <si>
-    <t>jjby_drop_limit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jjby_drop_limit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jjby_drop_limit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jjby_drop_limit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jjby_drop_limit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jjby_drop_limit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2965,8 +2938,8 @@
   <dimension ref="A1:D215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D196" sqref="D196"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I193" sqref="I193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5209,9 +5182,6 @@
       <c r="C158" s="7">
         <v>9</v>
       </c>
-      <c r="D158" s="6" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="159" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
@@ -5225,9 +5195,6 @@
       <c r="C159" s="7">
         <v>9</v>
       </c>
-      <c r="D159" s="6" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="160" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
@@ -5241,9 +5208,6 @@
       <c r="C160" s="7">
         <v>9</v>
       </c>
-      <c r="D160" s="6" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="161" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
@@ -5257,9 +5221,6 @@
       <c r="C161" s="7">
         <v>9</v>
       </c>
-      <c r="D161" s="6" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="162" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
@@ -5273,9 +5234,6 @@
       <c r="C162" s="7">
         <v>9</v>
       </c>
-      <c r="D162" s="6" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="163" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
@@ -5342,9 +5300,6 @@
       <c r="C168" s="7">
         <v>9</v>
       </c>
-      <c r="D168" s="6" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="169" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
@@ -5358,9 +5313,6 @@
       <c r="C169" s="7">
         <v>9</v>
       </c>
-      <c r="D169" s="6" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
@@ -5374,9 +5326,7 @@
       <c r="C170" s="7">
         <v>9</v>
       </c>
-      <c r="D170" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="D170" s="6"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
@@ -5390,9 +5340,7 @@
       <c r="C171" s="7">
         <v>9</v>
       </c>
-      <c r="D171" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="D171" s="6"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
@@ -5406,9 +5354,7 @@
       <c r="C172" s="7">
         <v>9</v>
       </c>
-      <c r="D172" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="D172" s="6"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
@@ -5458,9 +5404,7 @@
       <c r="C176" s="6">
         <v>9</v>
       </c>
-      <c r="D176" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="D176" s="6"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
@@ -5474,9 +5418,7 @@
       <c r="C177" s="6">
         <v>9</v>
       </c>
-      <c r="D177" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="D177" s="6"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
@@ -5490,9 +5432,7 @@
       <c r="C178" s="6">
         <v>9</v>
       </c>
-      <c r="D178" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="D178" s="6"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
@@ -5506,9 +5446,7 @@
       <c r="C179" s="6">
         <v>9</v>
       </c>
-      <c r="D179" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="D179" s="6"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
@@ -5522,9 +5460,7 @@
       <c r="C180" s="6">
         <v>9</v>
       </c>
-      <c r="D180" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="D180" s="6"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
@@ -5574,9 +5510,6 @@
       <c r="C184" s="1">
         <v>9</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
@@ -5590,9 +5523,6 @@
       <c r="C185" s="1">
         <v>9</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
@@ -5606,9 +5536,6 @@
       <c r="C186" s="1">
         <v>9</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
@@ -5622,9 +5549,6 @@
       <c r="C187" s="1">
         <v>9</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
@@ -5638,9 +5562,6 @@
       <c r="C188" s="1">
         <v>9</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
@@ -5683,11 +5604,8 @@
       <c r="C192" s="1">
         <v>9</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="8">
         <v>192</v>
       </c>
@@ -5698,11 +5616,8 @@
       <c r="C193" s="1">
         <v>9</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="8">
         <v>193</v>
       </c>
@@ -5713,11 +5628,8 @@
       <c r="C194" s="1">
         <v>9</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="8">
         <v>194</v>
       </c>
@@ -5728,11 +5640,8 @@
       <c r="C195" s="1">
         <v>9</v>
       </c>
-      <c r="D195" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="8">
         <v>195</v>
       </c>
@@ -5743,11 +5652,8 @@
       <c r="C196" s="1">
         <v>9</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="8">
         <v>196</v>
       </c>
@@ -5756,7 +5662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="8">
         <v>197</v>
       </c>
@@ -5765,7 +5671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="8">
         <v>198</v>
       </c>
@@ -5774,31 +5680,31 @@
         <v>35</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_use_config.xlsx
+++ b/config_Release/fish_use_config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="28125" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="use_fish" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -27,15 +22,13 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -43,9 +36,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -58,93 +49,209 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
-    <t>attr_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>id</t>
   </si>
   <si>
     <t>fish_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>attr_id</t>
   </si>
   <si>
     <t>cond_key|权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>actp_031_xxy_show</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_031_xxy_show</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_031_xxy_show</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B0B0B"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0B0B0B"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,18 +266,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -193,61 +480,347 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="49" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="49" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="group"/>
@@ -2315,6 +2888,8 @@
           <cell r="B1" t="str">
             <v>acti_type|活动类型</v>
           </cell>
+        </row>
+        <row r="1">
           <cell r="D1" t="str">
             <v>show|显隐1显0隐</v>
           </cell>
@@ -2326,6 +2901,8 @@
           <cell r="B2">
             <v>1</v>
           </cell>
+        </row>
+        <row r="2">
           <cell r="D2">
             <v>0</v>
           </cell>
@@ -2337,6 +2914,8 @@
           <cell r="B3">
             <v>2</v>
           </cell>
+        </row>
+        <row r="3">
           <cell r="D3">
             <v>0</v>
           </cell>
@@ -2348,6 +2927,8 @@
           <cell r="B4">
             <v>3</v>
           </cell>
+        </row>
+        <row r="4">
           <cell r="D4">
             <v>0</v>
           </cell>
@@ -2359,6 +2940,8 @@
           <cell r="B5">
             <v>4</v>
           </cell>
+        </row>
+        <row r="5">
           <cell r="D5">
             <v>1</v>
           </cell>
@@ -2370,6 +2953,8 @@
           <cell r="B6">
             <v>5</v>
           </cell>
+        </row>
+        <row r="6">
           <cell r="D6">
             <v>1</v>
           </cell>
@@ -2381,6 +2966,8 @@
           <cell r="B7">
             <v>4</v>
           </cell>
+        </row>
+        <row r="7">
           <cell r="D7">
             <v>0</v>
           </cell>
@@ -2392,6 +2979,8 @@
           <cell r="B8">
             <v>1</v>
           </cell>
+        </row>
+        <row r="8">
           <cell r="D8">
             <v>0</v>
           </cell>
@@ -2403,6 +2992,8 @@
           <cell r="B9">
             <v>4</v>
           </cell>
+        </row>
+        <row r="9">
           <cell r="D9">
             <v>0</v>
           </cell>
@@ -2414,6 +3005,8 @@
           <cell r="B10">
             <v>5</v>
           </cell>
+        </row>
+        <row r="10">
           <cell r="D10">
             <v>0</v>
           </cell>
@@ -2425,6 +3018,8 @@
           <cell r="B11">
             <v>5</v>
           </cell>
+        </row>
+        <row r="11">
           <cell r="D11">
             <v>0</v>
           </cell>
@@ -2436,6 +3031,8 @@
           <cell r="B12">
             <v>7</v>
           </cell>
+        </row>
+        <row r="12">
           <cell r="D12">
             <v>1</v>
           </cell>
@@ -2447,6 +3044,8 @@
           <cell r="B13">
             <v>7</v>
           </cell>
+        </row>
+        <row r="13">
           <cell r="D13">
             <v>0</v>
           </cell>
@@ -2458,6 +3057,8 @@
           <cell r="B14">
             <v>8</v>
           </cell>
+        </row>
+        <row r="14">
           <cell r="D14">
             <v>1</v>
           </cell>
@@ -2469,6 +3070,8 @@
           <cell r="B15">
             <v>8</v>
           </cell>
+        </row>
+        <row r="15">
           <cell r="D15">
             <v>0</v>
           </cell>
@@ -2480,6 +3083,8 @@
           <cell r="B16">
             <v>9</v>
           </cell>
+        </row>
+        <row r="16">
           <cell r="D16">
             <v>1</v>
           </cell>
@@ -2491,6 +3096,8 @@
           <cell r="B17">
             <v>9</v>
           </cell>
+        </row>
+        <row r="17">
           <cell r="D17">
             <v>0</v>
           </cell>
@@ -2502,6 +3109,8 @@
           <cell r="B18">
             <v>10</v>
           </cell>
+        </row>
+        <row r="18">
           <cell r="D18">
             <v>0</v>
           </cell>
@@ -2513,6 +3122,8 @@
           <cell r="B19">
             <v>18</v>
           </cell>
+        </row>
+        <row r="19">
           <cell r="D19">
             <v>0</v>
           </cell>
@@ -2524,6 +3135,8 @@
           <cell r="B20">
             <v>17</v>
           </cell>
+        </row>
+        <row r="20">
           <cell r="D20">
             <v>1</v>
           </cell>
@@ -2535,6 +3148,8 @@
           <cell r="B21">
             <v>19</v>
           </cell>
+        </row>
+        <row r="21">
           <cell r="D21">
             <v>1</v>
           </cell>
@@ -2546,6 +3161,8 @@
           <cell r="B22">
             <v>20</v>
           </cell>
+        </row>
+        <row r="22">
           <cell r="D22">
             <v>0</v>
           </cell>
@@ -2557,6 +3174,8 @@
           <cell r="B23">
             <v>20</v>
           </cell>
+        </row>
+        <row r="23">
           <cell r="D23">
             <v>0</v>
           </cell>
@@ -2568,6 +3187,8 @@
           <cell r="B24">
             <v>20</v>
           </cell>
+        </row>
+        <row r="24">
           <cell r="D24">
             <v>0</v>
           </cell>
@@ -2579,6 +3200,8 @@
           <cell r="B25">
             <v>20</v>
           </cell>
+        </row>
+        <row r="25">
           <cell r="D25">
             <v>0</v>
           </cell>
@@ -2590,6 +3213,8 @@
           <cell r="B26">
             <v>26</v>
           </cell>
+        </row>
+        <row r="26">
           <cell r="D26">
             <v>1</v>
           </cell>
@@ -2601,6 +3226,8 @@
           <cell r="B27">
             <v>27</v>
           </cell>
+        </row>
+        <row r="27">
           <cell r="D27">
             <v>1</v>
           </cell>
@@ -2612,6 +3239,8 @@
           <cell r="B28">
             <v>9</v>
           </cell>
+        </row>
+        <row r="28">
           <cell r="D28">
             <v>0</v>
           </cell>
@@ -2623,6 +3252,8 @@
           <cell r="B29">
             <v>9</v>
           </cell>
+        </row>
+        <row r="29">
           <cell r="D29">
             <v>0</v>
           </cell>
@@ -2634,6 +3265,8 @@
           <cell r="B30">
             <v>9</v>
           </cell>
+        </row>
+        <row r="30">
           <cell r="D30">
             <v>0</v>
           </cell>
@@ -2645,6 +3278,8 @@
           <cell r="B31">
             <v>9</v>
           </cell>
+        </row>
+        <row r="31">
           <cell r="D31">
             <v>1</v>
           </cell>
@@ -2714,7 +3349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2749,7 +3384,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2923,2259 +3558,2254 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I193" sqref="I193"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="9" style="5"/>
+    <col min="3" max="3" width="11.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:3">
+      <c r="A2" s="6">
         <f>[1]use_fish!$A2</f>
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <f>[1]use_fish!$B2</f>
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="e">
+      <c r="C2" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C2),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:3">
+      <c r="A3" s="6">
         <f>[1]use_fish!$A3</f>
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <f>[1]use_fish!$B3</f>
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="e">
+      <c r="C3" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C3),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" spans="1:3">
+      <c r="A4" s="6">
         <f>[1]use_fish!$A4</f>
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <f>[1]use_fish!$B4</f>
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="e">
+      <c r="C4" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C4),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="5" spans="1:3">
+      <c r="A5" s="6">
         <f>[1]use_fish!$A5</f>
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <f>[1]use_fish!$B5</f>
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="e">
+      <c r="C5" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C5),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" spans="1:3">
+      <c r="A6" s="6">
         <f>[1]use_fish!$A6</f>
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <f>[1]use_fish!$B6</f>
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="e">
+      <c r="C6" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C6),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="7" spans="1:3">
+      <c r="A7" s="6">
         <f>[1]use_fish!$A7</f>
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <f>[1]use_fish!$B7</f>
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="e">
+      <c r="C7" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C7),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" spans="1:3">
+      <c r="A8" s="6">
         <f>[1]use_fish!$A8</f>
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="6">
         <f>[1]use_fish!$B8</f>
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="e">
+      <c r="C8" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C8),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:3">
+      <c r="A9" s="6">
         <f>[1]use_fish!$A9</f>
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <f>[1]use_fish!$B9</f>
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="e">
+      <c r="C9" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C9),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="10" spans="1:3">
+      <c r="A10" s="6">
         <f>[1]use_fish!$A10</f>
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <f>[1]use_fish!$B10</f>
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="e">
+      <c r="C10" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C10),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="11" spans="1:3">
+      <c r="A11" s="6">
         <f>[1]use_fish!$A11</f>
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="6">
         <f>[1]use_fish!$B11</f>
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="e">
+      <c r="C11" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C11),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:3">
+      <c r="A12" s="6">
         <f>[1]use_fish!$A12</f>
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <f>[1]use_fish!$B12</f>
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="e">
+      <c r="C12" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C12),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="13" spans="1:3">
+      <c r="A13" s="6">
         <f>[1]use_fish!$A13</f>
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="6">
         <f>[1]use_fish!$B13</f>
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="e">
+      <c r="C13" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C13),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="14" spans="1:3">
+      <c r="A14" s="6">
         <f>[1]use_fish!$A14</f>
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <f>[1]use_fish!$B14</f>
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="e">
+      <c r="C14" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C14),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="15" spans="1:3">
+      <c r="A15" s="6">
         <f>[1]use_fish!$A15</f>
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <f>[1]use_fish!$B15</f>
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="e">
+      <c r="C15" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C15),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="16" spans="1:3">
+      <c r="A16" s="6">
         <f>[1]use_fish!$A16</f>
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="6">
         <f>[1]use_fish!$B16</f>
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="e">
+      <c r="C16" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C16),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="17" spans="1:3">
+      <c r="A17" s="6">
         <f>[1]use_fish!$A17</f>
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="6">
         <f>[1]use_fish!$B17</f>
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="e">
+      <c r="C17" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C17),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+    <row r="18" spans="1:3">
+      <c r="A18" s="6">
         <f>[1]use_fish!$A18</f>
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="6">
         <f>[1]use_fish!$B18</f>
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="e">
+      <c r="C18" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C18),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+    <row r="19" spans="1:3">
+      <c r="A19" s="6">
         <f>[1]use_fish!$A19</f>
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="6">
         <f>[1]use_fish!$B19</f>
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="e">
+      <c r="C19" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C19),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+    <row r="20" spans="1:3">
+      <c r="A20" s="6">
         <f>[1]use_fish!$A20</f>
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="6">
         <f>[1]use_fish!$B20</f>
         <v>6</v>
       </c>
-      <c r="C20" s="1" t="str">
+      <c r="C20" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C20),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="21" spans="1:3">
+      <c r="A21" s="6">
         <f>[1]use_fish!$A21</f>
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="6">
         <f>[1]use_fish!$B21</f>
         <v>6</v>
       </c>
-      <c r="C21" s="1" t="str">
+      <c r="C21" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C21),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    <row r="22" spans="1:3">
+      <c r="A22" s="6">
         <f>[1]use_fish!$A22</f>
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="6">
         <f>[1]use_fish!$B22</f>
         <v>6</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <f>IF(ISBLANK([1]use_fish!$C22),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    <row r="23" spans="1:3">
+      <c r="A23" s="6">
         <f>[1]use_fish!$A23</f>
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="6">
         <f>[1]use_fish!$B23</f>
         <v>6</v>
       </c>
-      <c r="C23" s="1" t="str">
+      <c r="C23" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C23),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+    <row r="24" spans="1:3">
+      <c r="A24" s="6">
         <f>[1]use_fish!$A24</f>
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="6">
         <f>[1]use_fish!$B24</f>
         <v>6</v>
       </c>
-      <c r="C24" s="1" t="str">
+      <c r="C24" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C24),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    <row r="25" spans="1:3">
+      <c r="A25" s="6">
         <f>[1]use_fish!$A25</f>
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="6">
         <f>[1]use_fish!$B25</f>
         <v>7</v>
       </c>
-      <c r="C25" s="1" t="str">
+      <c r="C25" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C25),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="26" spans="1:3">
+      <c r="A26" s="6">
         <f>[1]use_fish!$A26</f>
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="6">
         <f>[1]use_fish!$B26</f>
         <v>7</v>
       </c>
-      <c r="C26" s="1" t="str">
+      <c r="C26" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C26),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="27" spans="1:3">
+      <c r="A27" s="6">
         <f>[1]use_fish!$A27</f>
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="6">
         <f>[1]use_fish!$B27</f>
         <v>7</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <f>IF(ISBLANK([1]use_fish!$C27),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="28" spans="1:3">
+      <c r="A28" s="6">
         <f>[1]use_fish!$A28</f>
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="6">
         <f>[1]use_fish!$B28</f>
         <v>7</v>
       </c>
-      <c r="C28" s="1" t="str">
+      <c r="C28" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C28),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="29" spans="1:3">
+      <c r="A29" s="6">
         <f>[1]use_fish!$A29</f>
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="6">
         <f>[1]use_fish!$B29</f>
         <v>7</v>
       </c>
-      <c r="C29" s="1" t="str">
+      <c r="C29" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C29),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+    <row r="30" spans="1:3">
+      <c r="A30" s="6">
         <f>[1]use_fish!$A30</f>
         <v>29</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="6">
         <f>[1]use_fish!$B30</f>
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="str">
+      <c r="C30" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C30),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+    <row r="31" spans="1:3">
+      <c r="A31" s="6">
         <f>[1]use_fish!$A31</f>
         <v>30</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="6">
         <f>[1]use_fish!$B31</f>
         <v>8</v>
       </c>
-      <c r="C31" s="1" t="str">
+      <c r="C31" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C31),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+    <row r="32" spans="1:3">
+      <c r="A32" s="6">
         <f>[1]use_fish!$A32</f>
         <v>31</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="6">
         <f>[1]use_fish!$B32</f>
         <v>8</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <f>IF(ISBLANK([1]use_fish!$C32),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+    <row r="33" spans="1:3">
+      <c r="A33" s="6">
         <f>[1]use_fish!$A33</f>
         <v>32</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="6">
         <f>[1]use_fish!$B33</f>
         <v>8</v>
       </c>
-      <c r="C33" s="1" t="str">
+      <c r="C33" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C33),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+    <row r="34" spans="1:3">
+      <c r="A34" s="6">
         <f>[1]use_fish!$A34</f>
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="6">
         <f>[1]use_fish!$B34</f>
         <v>8</v>
       </c>
-      <c r="C34" s="1" t="str">
+      <c r="C34" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C34),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+    <row r="35" spans="1:3">
+      <c r="A35" s="6">
         <f>[1]use_fish!$A35</f>
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="6">
         <f>[1]use_fish!$B35</f>
         <v>8</v>
       </c>
-      <c r="C35" s="1" t="str">
+      <c r="C35" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C35),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+    <row r="36" spans="1:3">
+      <c r="A36" s="6">
         <f>[1]use_fish!$A36</f>
         <v>35</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="6">
         <f>[1]use_fish!$B36</f>
         <v>8</v>
       </c>
-      <c r="C36" s="1" t="str">
+      <c r="C36" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C36),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+    <row r="37" spans="1:3">
+      <c r="A37" s="6">
         <f>[1]use_fish!$A37</f>
         <v>36</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="6">
         <f>[1]use_fish!$B37</f>
         <v>9</v>
       </c>
-      <c r="C37" s="1" t="str">
+      <c r="C37" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C37),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+    <row r="38" spans="1:3">
+      <c r="A38" s="6">
         <f>[1]use_fish!$A38</f>
         <v>37</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="6">
         <f>[1]use_fish!$B38</f>
         <v>9</v>
       </c>
-      <c r="C38" s="1" t="str">
+      <c r="C38" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C38),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+    <row r="39" spans="1:3">
+      <c r="A39" s="6">
         <f>[1]use_fish!$A39</f>
         <v>38</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="6">
         <f>[1]use_fish!$B39</f>
         <v>9</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="4">
         <f>IF(ISBLANK([1]use_fish!$C39),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+    <row r="40" spans="1:3">
+      <c r="A40" s="6">
         <f>[1]use_fish!$A40</f>
         <v>39</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="6">
         <f>[1]use_fish!$B40</f>
         <v>9</v>
       </c>
-      <c r="C40" s="1" t="str">
+      <c r="C40" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C40),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+    <row r="41" spans="1:3">
+      <c r="A41" s="6">
         <f>[1]use_fish!$A41</f>
         <v>40</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="6">
         <f>[1]use_fish!$B41</f>
         <v>9</v>
       </c>
-      <c r="C41" s="1" t="str">
+      <c r="C41" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C41),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+    <row r="42" spans="1:3">
+      <c r="A42" s="6">
         <f>[1]use_fish!$A42</f>
         <v>41</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="6">
         <f>[1]use_fish!$B42</f>
         <v>9</v>
       </c>
-      <c r="C42" s="1" t="str">
+      <c r="C42" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C42),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+    <row r="43" spans="1:3">
+      <c r="A43" s="6">
         <f>[1]use_fish!$A43</f>
         <v>42</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="6">
         <f>[1]use_fish!$B43</f>
         <v>9</v>
       </c>
-      <c r="C43" s="1" t="str">
+      <c r="C43" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C43),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+    <row r="44" spans="1:3">
+      <c r="A44" s="6">
         <f>[1]use_fish!$A44</f>
         <v>43</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="6">
         <f>[1]use_fish!$B44</f>
         <v>9</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="4">
         <f>IF(ISBLANK([1]use_fish!$C44),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+    <row r="45" spans="1:3">
+      <c r="A45" s="6">
         <f>[1]use_fish!$A45</f>
         <v>44</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="6">
         <f>[1]use_fish!$B45</f>
         <v>9</v>
       </c>
-      <c r="C45" s="1" t="str">
+      <c r="C45" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C45),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+    <row r="46" spans="1:3">
+      <c r="A46" s="6">
         <f>[1]use_fish!$A46</f>
         <v>45</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="6">
         <f>[1]use_fish!$B46</f>
         <v>10</v>
       </c>
-      <c r="C46" s="1" t="str">
+      <c r="C46" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C46),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+    <row r="47" spans="1:3">
+      <c r="A47" s="6">
         <f>[1]use_fish!$A47</f>
         <v>46</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="6">
         <f>[1]use_fish!$B47</f>
         <v>10</v>
       </c>
-      <c r="C47" s="1" t="str">
+      <c r="C47" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C47),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+    <row r="48" spans="1:3">
+      <c r="A48" s="6">
         <f>[1]use_fish!$A48</f>
         <v>47</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="6">
         <f>[1]use_fish!$B48</f>
         <v>10</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="4">
         <f>IF(ISBLANK([1]use_fish!$C48),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+    <row r="49" spans="1:3">
+      <c r="A49" s="6">
         <f>[1]use_fish!$A49</f>
         <v>48</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="6">
         <f>[1]use_fish!$B49</f>
         <v>10</v>
       </c>
-      <c r="C49" s="1" t="str">
+      <c r="C49" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C49),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+    <row r="50" spans="1:3">
+      <c r="A50" s="6">
         <f>[1]use_fish!$A50</f>
         <v>49</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="6">
         <f>[1]use_fish!$B50</f>
         <v>10</v>
       </c>
-      <c r="C50" s="1" t="str">
+      <c r="C50" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C50),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+    <row r="51" spans="1:3">
+      <c r="A51" s="6">
         <f>[1]use_fish!$A51</f>
         <v>50</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="6">
         <f>[1]use_fish!$B51</f>
         <v>10</v>
       </c>
-      <c r="C51" s="1" t="str">
+      <c r="C51" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C51),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+    <row r="52" spans="1:3">
+      <c r="A52" s="6">
         <f>[1]use_fish!$A52</f>
         <v>51</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="6">
         <f>[1]use_fish!$B52</f>
         <v>10</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="4">
         <f>IF(ISBLANK([1]use_fish!$C52),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+    <row r="53" spans="1:3">
+      <c r="A53" s="6">
         <f>[1]use_fish!$A53</f>
         <v>52</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="6">
         <f>[1]use_fish!$B53</f>
         <v>10</v>
       </c>
-      <c r="C53" s="1" t="str">
+      <c r="C53" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C53),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+    <row r="54" spans="1:3">
+      <c r="A54" s="6">
         <f>[1]use_fish!$A54</f>
         <v>53</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="6">
         <f>[1]use_fish!$B54</f>
         <v>10</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="4">
         <f>IF(ISBLANK([1]use_fish!$C54),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+    <row r="55" spans="1:3">
+      <c r="A55" s="6">
         <f>[1]use_fish!$A55</f>
         <v>54</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="6">
         <f>[1]use_fish!$B55</f>
         <v>10</v>
       </c>
-      <c r="C55" s="1" t="str">
+      <c r="C55" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C55),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+    <row r="56" spans="1:3">
+      <c r="A56" s="6">
         <f>[1]use_fish!$A56</f>
         <v>55</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="6">
         <f>[1]use_fish!$B56</f>
         <v>11</v>
       </c>
-      <c r="C56" s="1" t="str">
+      <c r="C56" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C56),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+    <row r="57" spans="1:3">
+      <c r="A57" s="6">
         <f>[1]use_fish!$A57</f>
         <v>56</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="6">
         <f>[1]use_fish!$B57</f>
         <v>11</v>
       </c>
-      <c r="C57" s="1" t="str">
+      <c r="C57" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C57),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+    <row r="58" spans="1:3">
+      <c r="A58" s="6">
         <f>[1]use_fish!$A58</f>
         <v>57</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="6">
         <f>[1]use_fish!$B58</f>
         <v>11</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="4">
         <f>IF(ISBLANK([1]use_fish!$C58),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+    <row r="59" spans="1:3">
+      <c r="A59" s="6">
         <f>[1]use_fish!$A59</f>
         <v>58</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="6">
         <f>[1]use_fish!$B59</f>
         <v>11</v>
       </c>
-      <c r="C59" s="1" t="str">
+      <c r="C59" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C59),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+    <row r="60" spans="1:3">
+      <c r="A60" s="6">
         <f>[1]use_fish!$A60</f>
         <v>59</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="6">
         <f>[1]use_fish!$B60</f>
         <v>11</v>
       </c>
-      <c r="C60" s="1" t="str">
+      <c r="C60" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C60),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+    <row r="61" spans="1:3">
+      <c r="A61" s="6">
         <f>[1]use_fish!$A61</f>
         <v>60</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="6">
         <f>[1]use_fish!$B61</f>
         <v>11</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="4">
         <f>IF(ISBLANK([1]use_fish!$C61),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+    <row r="62" spans="1:3">
+      <c r="A62" s="6">
         <f>[1]use_fish!$A62</f>
         <v>61</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="6">
         <f>[1]use_fish!$B62</f>
         <v>11</v>
       </c>
-      <c r="C62" s="1" t="str">
+      <c r="C62" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C62),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+    <row r="63" spans="1:3">
+      <c r="A63" s="6">
         <f>[1]use_fish!$A63</f>
         <v>62</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="6">
         <f>[1]use_fish!$B63</f>
         <v>11</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="4">
         <f>IF(ISBLANK([1]use_fish!$C63),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+    <row r="64" spans="1:3">
+      <c r="A64" s="6">
         <f>[1]use_fish!$A64</f>
         <v>63</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="6">
         <f>[1]use_fish!$B64</f>
         <v>11</v>
       </c>
-      <c r="C64" s="1" t="str">
+      <c r="C64" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C64),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+    <row r="65" spans="1:3">
+      <c r="A65" s="6">
         <f>[1]use_fish!$A65</f>
         <v>64</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="6">
         <f>[1]use_fish!$B65</f>
         <v>12</v>
       </c>
-      <c r="C65" s="1" t="str">
+      <c r="C65" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C65),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+    <row r="66" spans="1:3">
+      <c r="A66" s="6">
         <f>[1]use_fish!$A66</f>
         <v>65</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="6">
         <f>[1]use_fish!$B66</f>
         <v>12</v>
       </c>
-      <c r="C66" s="1" t="str">
+      <c r="C66" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C66),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+    <row r="67" spans="1:3">
+      <c r="A67" s="6">
         <f>[1]use_fish!$A67</f>
         <v>66</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="6">
         <f>[1]use_fish!$B67</f>
         <v>12</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="4">
         <f>IF(ISBLANK([1]use_fish!$C67),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+    <row r="68" spans="1:3">
+      <c r="A68" s="6">
         <f>[1]use_fish!$A68</f>
         <v>67</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="6">
         <f>[1]use_fish!$B68</f>
         <v>12</v>
       </c>
-      <c r="C68" s="1" t="str">
+      <c r="C68" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C68),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+    <row r="69" spans="1:3">
+      <c r="A69" s="6">
         <f>[1]use_fish!$A69</f>
         <v>68</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="6">
         <f>[1]use_fish!$B69</f>
         <v>12</v>
       </c>
-      <c r="C69" s="1" t="str">
+      <c r="C69" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C69),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+    <row r="70" spans="1:3">
+      <c r="A70" s="6">
         <f>[1]use_fish!$A70</f>
         <v>69</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="6">
         <f>[1]use_fish!$B70</f>
         <v>12</v>
       </c>
-      <c r="C70" s="1" t="str">
+      <c r="C70" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C70),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
+    <row r="71" spans="1:3">
+      <c r="A71" s="6">
         <f>[1]use_fish!$A71</f>
         <v>70</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="6">
         <f>[1]use_fish!$B71</f>
         <v>12</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="4">
         <f>IF(ISBLANK([1]use_fish!$C71),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
+    <row r="72" spans="1:3">
+      <c r="A72" s="6">
         <f>[1]use_fish!$A72</f>
         <v>71</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="6">
         <f>[1]use_fish!$B72</f>
         <v>12</v>
       </c>
-      <c r="C72" s="1" t="str">
+      <c r="C72" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C72),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
+    <row r="73" spans="1:3">
+      <c r="A73" s="6">
         <f>[1]use_fish!$A73</f>
         <v>72</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="6">
         <f>[1]use_fish!$B73</f>
         <v>14</v>
       </c>
-      <c r="C73" s="1" t="str">
+      <c r="C73" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C73),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
+    <row r="74" spans="1:3">
+      <c r="A74" s="6">
         <f>[1]use_fish!$A74</f>
         <v>73</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="6">
         <f>[1]use_fish!$B74</f>
         <v>14</v>
       </c>
-      <c r="C74" s="1" t="str">
+      <c r="C74" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C74),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
+    <row r="75" spans="1:3">
+      <c r="A75" s="6">
         <f>[1]use_fish!$A75</f>
         <v>74</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="6">
         <f>[1]use_fish!$B75</f>
         <v>14</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="4">
         <f>IF(ISBLANK([1]use_fish!$C75),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
+    <row r="76" spans="1:3">
+      <c r="A76" s="6">
         <f>[1]use_fish!$A76</f>
         <v>75</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="6">
         <f>[1]use_fish!$B76</f>
         <v>14</v>
       </c>
-      <c r="C76" s="1" t="str">
+      <c r="C76" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C76),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+    <row r="77" spans="1:3">
+      <c r="A77" s="6">
         <f>[1]use_fish!$A77</f>
         <v>76</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="6">
         <f>[1]use_fish!$B77</f>
         <v>14</v>
       </c>
-      <c r="C77" s="1" t="str">
+      <c r="C77" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C77),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
+    <row r="78" spans="1:3">
+      <c r="A78" s="6">
         <f>[1]use_fish!$A78</f>
         <v>77</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="6">
         <f>[1]use_fish!$B78</f>
         <v>14</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="4">
         <f>IF(ISBLANK([1]use_fish!$C78),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
+    <row r="79" spans="1:3">
+      <c r="A79" s="6">
         <f>[1]use_fish!$A79</f>
         <v>78</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="6">
         <f>[1]use_fish!$B79</f>
         <v>14</v>
       </c>
-      <c r="C79" s="1" t="str">
+      <c r="C79" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C79),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
+    <row r="80" spans="1:3">
+      <c r="A80" s="6">
         <f>[1]use_fish!$A80</f>
         <v>79</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="6">
         <f>[1]use_fish!$B80</f>
         <v>14</v>
       </c>
-      <c r="C80" s="1" t="str">
+      <c r="C80" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C80),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
+    <row r="81" spans="1:3">
+      <c r="A81" s="6">
         <f>[1]use_fish!$A81</f>
         <v>80</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="6">
         <f>[1]use_fish!$B81</f>
         <v>14</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="4">
         <f>IF(ISBLANK([1]use_fish!$C81),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
+    <row r="82" spans="1:3">
+      <c r="A82" s="6">
         <f>[1]use_fish!$A82</f>
         <v>81</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="6">
         <f>[1]use_fish!$B82</f>
         <v>14</v>
       </c>
-      <c r="C82" s="1" t="str">
+      <c r="C82" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C82),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
+    <row r="83" spans="1:3">
+      <c r="A83" s="6">
         <f>[1]use_fish!$A83</f>
         <v>82</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="6">
         <f>[1]use_fish!$B83</f>
         <v>15</v>
       </c>
-      <c r="C83" s="1" t="str">
+      <c r="C83" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C83),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
+    <row r="84" spans="1:3">
+      <c r="A84" s="6">
         <f>[1]use_fish!$A84</f>
         <v>83</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="6">
         <f>[1]use_fish!$B84</f>
         <v>15</v>
       </c>
-      <c r="C84" s="1" t="str">
+      <c r="C84" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C84),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
+    <row r="85" spans="1:3">
+      <c r="A85" s="6">
         <f>[1]use_fish!$A85</f>
         <v>84</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="6">
         <f>[1]use_fish!$B85</f>
         <v>15</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="4">
         <f>IF(ISBLANK([1]use_fish!$C85),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
+    <row r="86" spans="1:3">
+      <c r="A86" s="6">
         <f>[1]use_fish!$A86</f>
         <v>85</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="6">
         <f>[1]use_fish!$B86</f>
         <v>15</v>
       </c>
-      <c r="C86" s="1" t="str">
+      <c r="C86" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C86),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
+    <row r="87" spans="1:3">
+      <c r="A87" s="6">
         <f>[1]use_fish!$A87</f>
         <v>86</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="6">
         <f>[1]use_fish!$B87</f>
         <v>15</v>
       </c>
-      <c r="C87" s="1" t="str">
+      <c r="C87" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C87),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
+    <row r="88" spans="1:3">
+      <c r="A88" s="6">
         <f>[1]use_fish!$A88</f>
         <v>87</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="6">
         <f>[1]use_fish!$B88</f>
         <v>15</v>
       </c>
-      <c r="C88" s="1" t="str">
+      <c r="C88" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C88),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
+    <row r="89" spans="1:3">
+      <c r="A89" s="6">
         <f>[1]use_fish!$A89</f>
         <v>88</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="6">
         <f>[1]use_fish!$B89</f>
         <v>15</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="4">
         <f>IF(ISBLANK([1]use_fish!$C89),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
+    <row r="90" spans="1:3">
+      <c r="A90" s="6">
         <f>[1]use_fish!$A90</f>
         <v>89</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="6">
         <f>[1]use_fish!$B90</f>
         <v>15</v>
       </c>
-      <c r="C90" s="1" t="str">
+      <c r="C90" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C90),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
+    <row r="91" spans="1:3">
+      <c r="A91" s="6">
         <f>[1]use_fish!$A91</f>
         <v>90</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="6">
         <f>[1]use_fish!$B91</f>
         <v>15</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="4">
         <f>IF(ISBLANK([1]use_fish!$C91),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
+    <row r="92" spans="1:3">
+      <c r="A92" s="6">
         <f>[1]use_fish!$A92</f>
         <v>91</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="6">
         <f>[1]use_fish!$B92</f>
         <v>15</v>
       </c>
-      <c r="C92" s="1" t="str">
+      <c r="C92" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C92),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
+    <row r="93" spans="1:3">
+      <c r="A93" s="6">
         <f>[1]use_fish!$A93</f>
         <v>92</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="6">
         <f>[1]use_fish!$B93</f>
         <v>16</v>
       </c>
-      <c r="C93" s="1" t="str">
+      <c r="C93" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C93),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
+    <row r="94" spans="1:3">
+      <c r="A94" s="6">
         <f>[1]use_fish!$A94</f>
         <v>93</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="6">
         <f>[1]use_fish!$B94</f>
         <v>16</v>
       </c>
-      <c r="C94" s="1" t="str">
+      <c r="C94" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C94),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
+    <row r="95" spans="1:3">
+      <c r="A95" s="6">
         <f>[1]use_fish!$A95</f>
         <v>94</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="6">
         <f>[1]use_fish!$B95</f>
         <v>16</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="4">
         <f>IF(ISBLANK([1]use_fish!$C95),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
+    <row r="96" spans="1:3">
+      <c r="A96" s="6">
         <f>[1]use_fish!$A96</f>
         <v>95</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="6">
         <f>[1]use_fish!$B96</f>
         <v>16</v>
       </c>
-      <c r="C96" s="1" t="str">
+      <c r="C96" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C96),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
+    <row r="97" spans="1:3">
+      <c r="A97" s="6">
         <f>[1]use_fish!$A97</f>
         <v>96</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="6">
         <f>[1]use_fish!$B97</f>
         <v>16</v>
       </c>
-      <c r="C97" s="1" t="str">
+      <c r="C97" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C97),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
+    <row r="98" spans="1:3">
+      <c r="A98" s="6">
         <f>[1]use_fish!$A98</f>
         <v>97</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="6">
         <f>[1]use_fish!$B98</f>
         <v>16</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="4">
         <f>IF(ISBLANK([1]use_fish!$C98),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
+    <row r="99" spans="1:3">
+      <c r="A99" s="6">
         <f>[1]use_fish!$A99</f>
         <v>98</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="6">
         <f>[1]use_fish!$B99</f>
         <v>16</v>
       </c>
-      <c r="C99" s="1" t="str">
+      <c r="C99" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C99),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
+    <row r="100" spans="1:3">
+      <c r="A100" s="6">
         <f>[1]use_fish!$A100</f>
         <v>99</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="6">
         <f>[1]use_fish!$B100</f>
         <v>16</v>
       </c>
-      <c r="C100" s="1" t="str">
+      <c r="C100" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C100),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
+    <row r="101" spans="1:3">
+      <c r="A101" s="6">
         <f>[1]use_fish!$A101</f>
         <v>100</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="6">
         <f>[1]use_fish!$B101</f>
         <v>16</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="4">
         <f>IF(ISBLANK([1]use_fish!$C101),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
+    <row r="102" spans="1:3">
+      <c r="A102" s="6">
         <f>[1]use_fish!$A102</f>
         <v>101</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="6">
         <f>[1]use_fish!$B102</f>
         <v>16</v>
       </c>
-      <c r="C102" s="1" t="str">
+      <c r="C102" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C102),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
+    <row r="103" spans="1:3">
+      <c r="A103" s="6">
         <f>[1]use_fish!$A103</f>
         <v>102</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="6">
         <f>[1]use_fish!$B103</f>
         <v>3</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="4">
         <f>IF(ISBLANK([1]use_fish!$C103),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
+    <row r="104" spans="1:3">
+      <c r="A104" s="6">
         <f>[1]use_fish!$A104</f>
         <v>103</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="6">
         <f>[1]use_fish!$B104</f>
         <v>4</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="4">
         <f>IF(ISBLANK([1]use_fish!$C104),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
+    <row r="105" spans="1:3">
+      <c r="A105" s="6">
         <f>[1]use_fish!$A105</f>
         <v>104</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="6">
         <f>[1]use_fish!$B105</f>
         <v>5</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="4">
         <f>IF(ISBLANK([1]use_fish!$C105),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
+    <row r="106" spans="1:3">
+      <c r="A106" s="6">
         <f>[1]use_fish!$A106</f>
         <v>105</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="6">
         <f>[1]use_fish!$B106</f>
         <v>6</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="4">
         <f>IF(ISBLANK([1]use_fish!$C106),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
+    <row r="107" spans="1:3">
+      <c r="A107" s="6">
         <f>[1]use_fish!$A107</f>
         <v>106</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="6">
         <f>[1]use_fish!$B107</f>
         <v>7</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="4">
         <f>IF(ISBLANK([1]use_fish!$C107),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
+    <row r="108" spans="1:3">
+      <c r="A108" s="6">
         <f>[1]use_fish!$A108</f>
         <v>107</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="6">
         <f>[1]use_fish!$B108</f>
         <v>8</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="4">
         <f>IF(ISBLANK([1]use_fish!$C108),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
+    <row r="109" spans="1:3">
+      <c r="A109" s="6">
         <f>[1]use_fish!$A109</f>
         <v>108</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="6">
         <f>[1]use_fish!$B109</f>
         <v>9</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="4">
         <f>IF(ISBLANK([1]use_fish!$C109),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
+    <row r="110" spans="1:3">
+      <c r="A110" s="6">
         <f>[1]use_fish!$A110</f>
         <v>109</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="6">
         <f>[1]use_fish!$B110</f>
         <v>10</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="4">
         <f>IF(ISBLANK([1]use_fish!$C110),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
+    <row r="111" spans="1:3">
+      <c r="A111" s="6">
         <f>[1]use_fish!$A111</f>
         <v>110</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="6">
         <f>[1]use_fish!$B111</f>
         <v>3</v>
       </c>
-      <c r="C111" s="1" t="str">
+      <c r="C111" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C111),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
+    <row r="112" spans="1:3">
+      <c r="A112" s="6">
         <f>[1]use_fish!$A112</f>
         <v>111</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="6">
         <f>[1]use_fish!$B112</f>
         <v>4</v>
       </c>
-      <c r="C112" s="1" t="str">
+      <c r="C112" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C112),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="3">
+    <row r="113" spans="1:3">
+      <c r="A113" s="6">
         <f>[1]use_fish!$A113</f>
         <v>112</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="6">
         <f>[1]use_fish!$B113</f>
         <v>5</v>
       </c>
-      <c r="C113" s="1" t="str">
+      <c r="C113" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C113),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
+    <row r="114" spans="1:3">
+      <c r="A114" s="6">
         <f>[1]use_fish!$A114</f>
         <v>113</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="6">
         <f>[1]use_fish!$B114</f>
         <v>6</v>
       </c>
-      <c r="C114" s="1" t="str">
+      <c r="C114" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C114),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
+    <row r="115" spans="1:3">
+      <c r="A115" s="6">
         <f>[1]use_fish!$A115</f>
         <v>114</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="6">
         <f>[1]use_fish!$B115</f>
         <v>7</v>
       </c>
-      <c r="C115" s="1" t="str">
+      <c r="C115" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C115),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="3">
+    <row r="116" spans="1:3">
+      <c r="A116" s="6">
         <f>[1]use_fish!$A116</f>
         <v>115</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="6">
         <f>[1]use_fish!$B116</f>
         <v>8</v>
       </c>
-      <c r="C116" s="1" t="str">
+      <c r="C116" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C116),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
+    <row r="117" spans="1:3">
+      <c r="A117" s="6">
         <f>[1]use_fish!$A117</f>
         <v>116</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="6">
         <f>[1]use_fish!$B117</f>
         <v>9</v>
       </c>
-      <c r="C117" s="1" t="str">
+      <c r="C117" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C117),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
+    <row r="118" spans="1:3">
+      <c r="A118" s="6">
         <f>[1]use_fish!$A118</f>
         <v>117</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="6">
         <f>[1]use_fish!$B118</f>
         <v>10</v>
       </c>
-      <c r="C118" s="1" t="str">
+      <c r="C118" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C118),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="3">
+    <row r="119" spans="1:3">
+      <c r="A119" s="6">
         <f>[1]use_fish!$A119</f>
         <v>118</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="6">
         <f>[1]use_fish!$B119</f>
         <v>19</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="4">
         <v>500000</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="3">
+    <row r="120" spans="1:3">
+      <c r="A120" s="6">
         <f>[1]use_fish!$A120</f>
         <v>119</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="6">
         <f>[1]use_fish!$B120</f>
         <v>19</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="4">
         <v>5000000</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="3">
+    <row r="121" spans="1:3">
+      <c r="A121" s="6">
         <f>[1]use_fish!$A121</f>
         <v>120</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="6">
         <f>[1]use_fish!$B121</f>
         <v>19</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="4">
         <v>50000000</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="3">
+    <row r="122" spans="1:3">
+      <c r="A122" s="6">
         <f>[1]use_fish!$A122</f>
         <v>121</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="6">
         <f>[1]use_fish!$B122</f>
         <v>20</v>
       </c>
-      <c r="C122" s="1" t="e">
+      <c r="C122" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C122),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="3">
+    <row r="123" spans="1:3">
+      <c r="A123" s="6">
         <f>[1]use_fish!$A123</f>
         <v>122</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="6">
         <f>[1]use_fish!$B123</f>
         <v>21</v>
       </c>
-      <c r="C123" s="1" t="e">
+      <c r="C123" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C123),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="3">
+    <row r="124" spans="1:3">
+      <c r="A124" s="6">
         <f>[1]use_fish!$A124</f>
         <v>123</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="6">
         <f>[1]use_fish!$B124</f>
         <v>28</v>
       </c>
-      <c r="C124" s="1" t="e">
+      <c r="C124" s="4" t="e">
         <f>IF(ISBLANK([1]use_fish!$C124),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="3">
+    <row r="125" spans="1:3">
+      <c r="A125" s="6">
         <f>[1]use_fish!$A125</f>
         <v>124</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="6">
         <f>[1]use_fish!$B125</f>
         <v>1</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="4">
         <f>IF(ISBLANK([1]use_fish!$C125),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="3">
+    <row r="126" spans="1:3">
+      <c r="A126" s="6">
         <f>[1]use_fish!$A126</f>
         <v>125</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="6">
         <f>[1]use_fish!$B126</f>
         <v>9</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="4">
         <f>IF(ISBLANK([1]use_fish!$C126),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="3">
+    <row r="127" spans="1:3">
+      <c r="A127" s="6">
         <f>[1]use_fish!$A127</f>
         <v>126</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="6">
         <f>[1]use_fish!$B127</f>
         <v>10</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127" s="4">
         <f>IF(ISBLANK([1]use_fish!$C127),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="3">
+    <row r="128" spans="1:3">
+      <c r="A128" s="6">
         <f>[1]use_fish!$A128</f>
         <v>127</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="6">
         <f>[1]use_fish!$B128</f>
         <v>11</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="4">
         <f>IF(ISBLANK([1]use_fish!$C128),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="3">
+    <row r="129" spans="1:3">
+      <c r="A129" s="6">
         <f>[1]use_fish!$A129</f>
         <v>128</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="6">
         <f>[1]use_fish!$B129</f>
         <v>12</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="4">
         <f>IF(ISBLANK([1]use_fish!$C129),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="3">
+    <row r="130" spans="1:3">
+      <c r="A130" s="6">
         <f>[1]use_fish!$A130</f>
         <v>129</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="6">
         <f>[1]use_fish!$B130</f>
         <v>6</v>
       </c>
-      <c r="C130" s="1" t="str">
+      <c r="C130" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C130),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="3">
+    <row r="131" spans="1:3">
+      <c r="A131" s="6">
         <f>[1]use_fish!$A131</f>
         <v>130</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="6">
         <f>[1]use_fish!$B131</f>
         <v>7</v>
       </c>
-      <c r="C131" s="1" t="str">
+      <c r="C131" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C131),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="3">
+    <row r="132" spans="1:3">
+      <c r="A132" s="6">
         <f>[1]use_fish!$A132</f>
         <v>131</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="6">
         <f>[1]use_fish!$B132</f>
         <v>8</v>
       </c>
-      <c r="C132" s="1" t="str">
+      <c r="C132" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C132),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="3">
+    <row r="133" spans="1:3">
+      <c r="A133" s="6">
         <f>[1]use_fish!$A133</f>
         <v>132</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="6">
         <f>[1]use_fish!$B133</f>
         <v>9</v>
       </c>
-      <c r="C133" s="1" t="str">
+      <c r="C133" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C133),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="3">
+    <row r="134" spans="1:3">
+      <c r="A134" s="6">
         <f>[1]use_fish!$A134</f>
         <v>133</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="6">
         <f>[1]use_fish!$B134</f>
         <v>10</v>
       </c>
-      <c r="C134" s="1" t="str">
+      <c r="C134" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C134),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="3">
+    <row r="135" spans="1:3">
+      <c r="A135" s="6">
         <f>[1]use_fish!$A135</f>
         <v>134</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="6">
         <f>[1]use_fish!$B135</f>
         <v>11</v>
       </c>
-      <c r="C135" s="1" t="str">
+      <c r="C135" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C135),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="3">
+    <row r="136" spans="1:3">
+      <c r="A136" s="6">
         <f>[1]use_fish!$A136</f>
         <v>135</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="6">
         <f>[1]use_fish!$B136</f>
         <v>12</v>
       </c>
-      <c r="C136" s="1" t="str">
+      <c r="C136" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C136),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="3">
+    <row r="137" spans="1:3">
+      <c r="A137" s="6">
         <f>[1]use_fish!$A137</f>
         <v>136</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="6">
         <f>[1]use_fish!$B137</f>
         <v>8</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="4">
         <f>IF(ISBLANK([1]use_fish!$C137),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="3">
+    <row r="138" spans="1:3">
+      <c r="A138" s="6">
         <f>[1]use_fish!$A138</f>
         <v>137</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="6">
         <f>[1]use_fish!$B138</f>
         <v>9</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="4">
         <f>IF(ISBLANK([1]use_fish!$C138),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="3">
+    <row r="139" spans="1:3">
+      <c r="A139" s="6">
         <f>[1]use_fish!$A139</f>
         <v>138</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="6">
         <f>[1]use_fish!$B139</f>
         <v>10</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="4">
         <f>IF(ISBLANK([1]use_fish!$C139),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="3">
+    <row r="140" spans="1:3">
+      <c r="A140" s="6">
         <f>[1]use_fish!$A140</f>
         <v>139</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="6">
         <f>[1]use_fish!$B140</f>
         <v>11</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="4">
         <f>IF(ISBLANK([1]use_fish!$C140),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="3">
+    <row r="141" spans="1:3">
+      <c r="A141" s="6">
         <f>[1]use_fish!$A141</f>
         <v>140</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="6">
         <f>[1]use_fish!$B141</f>
         <v>12</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="4">
         <f>IF(ISBLANK([1]use_fish!$C141),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="3">
+    <row r="142" spans="1:3">
+      <c r="A142" s="6">
         <f>[1]use_fish!$A142</f>
         <v>141</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="6">
         <f>[1]use_fish!$B142</f>
         <v>29</v>
       </c>
-      <c r="C142" s="1" t="str">
+      <c r="C142" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C142),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="3">
+    <row r="143" spans="1:3">
+      <c r="A143" s="6">
         <f>[1]use_fish!$A143</f>
         <v>142</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="6">
         <f>[1]use_fish!$B143</f>
         <v>29</v>
       </c>
-      <c r="C143" s="1" t="str">
+      <c r="C143" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C143),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="3">
+    <row r="144" spans="1:3">
+      <c r="A144" s="6">
         <f>[1]use_fish!$A144</f>
         <v>143</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="5">
         <f>[1]use_fish!$B144</f>
         <v>29</v>
       </c>
-      <c r="C144" s="1" t="str">
+      <c r="C144" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C144),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="3">
+    <row r="145" spans="1:3">
+      <c r="A145" s="6">
         <f>[1]use_fish!$A145</f>
         <v>144</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" s="5">
         <f>[1]use_fish!$B145</f>
         <v>29</v>
       </c>
-      <c r="C145" s="1" t="str">
+      <c r="C145" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C145),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="3">
+    <row r="146" spans="1:3">
+      <c r="A146" s="6">
         <f>[1]use_fish!$A146</f>
         <v>145</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="5">
         <f>[1]use_fish!$B146</f>
         <v>30</v>
       </c>
-      <c r="C146" s="1" t="str">
+      <c r="C146" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C146),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="3">
+    <row r="147" spans="1:3">
+      <c r="A147" s="6">
         <f>[1]use_fish!$A147</f>
         <v>146</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" s="5">
         <f>[1]use_fish!$B147</f>
         <v>30</v>
       </c>
-      <c r="C147" s="1" t="str">
+      <c r="C147" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C147),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="3">
+    <row r="148" spans="1:3">
+      <c r="A148" s="6">
         <f>[1]use_fish!$A148</f>
         <v>147</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148" s="5">
         <f>[1]use_fish!$B148</f>
         <v>30</v>
       </c>
-      <c r="C148" s="1" t="str">
+      <c r="C148" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C148),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="3">
+    <row r="149" spans="1:3">
+      <c r="A149" s="6">
         <f>[1]use_fish!$A149</f>
         <v>148</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="5">
         <f>[1]use_fish!$B149</f>
         <v>30</v>
       </c>
-      <c r="C149" s="1" t="str">
+      <c r="C149" s="4" t="str">
         <f>IF(ISBLANK([1]use_fish!$C149),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="3">
+    <row r="150" s="2" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A150" s="6">
         <f>[1]use_fish!$A150</f>
         <v>149</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="5">
         <f>[1]use_fish!$B150</f>
         <v>31</v>
       </c>
-      <c r="C150" s="5" t="str">
+      <c r="C150" s="2" t="str">
         <f>IF(ISBLANK([1]use_fish!$C150),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="3">
+      <c r="D150" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" s="2" customFormat="1" spans="1:4">
+      <c r="A151" s="6">
         <f>[1]use_fish!$A151</f>
         <v>150</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="5">
         <f>[1]use_fish!$B151</f>
         <v>31</v>
       </c>
-      <c r="C151" s="5" t="str">
+      <c r="C151" s="2" t="str">
         <f>IF(ISBLANK([1]use_fish!$C151),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D151" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="3">
+    <row r="152" s="2" customFormat="1" spans="1:4">
+      <c r="A152" s="6">
         <f>[1]use_fish!$A152</f>
         <v>151</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="5">
         <f>[1]use_fish!$B152</f>
         <v>31</v>
       </c>
-      <c r="C152" s="5" t="str">
+      <c r="C152" s="2" t="str">
         <f>IF(ISBLANK([1]use_fish!$C152),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v/>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="3">
+      <c r="D152" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" s="2" customFormat="1" spans="1:4">
+      <c r="A153" s="6">
         <f>[1]use_fish!$A153</f>
         <v>152</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="5">
         <f>[1]use_fish!$B153</f>
         <v>5</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C153" s="2">
         <f>IF(ISBLANK([1]use_fish!$C153),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="3">
+      <c r="D153" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" s="2" customFormat="1" spans="1:4">
+      <c r="A154" s="6">
         <f>[1]use_fish!$A154</f>
         <v>153</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="5">
         <f>[1]use_fish!$B154</f>
         <v>6</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154" s="2">
         <f>IF(ISBLANK([1]use_fish!$C154),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="3">
+      <c r="D154" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" s="2" customFormat="1" spans="1:4">
+      <c r="A155" s="6">
         <f>[1]use_fish!$A155</f>
         <v>154</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="5">
         <f>[1]use_fish!$B155</f>
         <v>7</v>
       </c>
-      <c r="C155" s="5">
+      <c r="C155" s="2">
         <f>IF(ISBLANK([1]use_fish!$C155),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="3">
+      <c r="D155" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" s="2" customFormat="1" spans="1:4">
+      <c r="A156" s="6">
         <f>[1]use_fish!$A156</f>
         <v>155</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="5">
         <f>[1]use_fish!$B156</f>
         <v>8</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156" s="2">
         <f>IF(ISBLANK([1]use_fish!$C156),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="3">
+      <c r="D156" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" s="2" customFormat="1" spans="1:4">
+      <c r="A157" s="6">
         <f>[1]use_fish!$A157</f>
         <v>156</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="5">
         <f>[1]use_fish!$B157</f>
         <v>9</v>
       </c>
-      <c r="C157" s="5">
+      <c r="C157" s="2">
         <f>IF(ISBLANK([1]use_fish!$C157),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
         <v>9</v>
       </c>
-      <c r="D157" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="3">
+      <c r="D157" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" s="3" customFormat="1" spans="1:3">
+      <c r="A158" s="6">
         <f>[1]use_fish!$A158</f>
         <v>157</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="5">
         <f>[1]use_fish!$B158</f>
         <v>6</v>
       </c>
@@ -5183,12 +5813,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="3">
+    <row r="159" s="3" customFormat="1" spans="1:3">
+      <c r="A159" s="6">
         <f>[1]use_fish!$A159</f>
         <v>158</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="5">
         <f>[1]use_fish!$B159</f>
         <v>7</v>
       </c>
@@ -5196,12 +5826,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="3">
+    <row r="160" s="3" customFormat="1" spans="1:3">
+      <c r="A160" s="6">
         <f>[1]use_fish!$A160</f>
         <v>159</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" s="5">
         <f>[1]use_fish!$B160</f>
         <v>8</v>
       </c>
@@ -5209,12 +5839,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="3">
+    <row r="161" s="3" customFormat="1" spans="1:3">
+      <c r="A161" s="6">
         <f>[1]use_fish!$A161</f>
         <v>160</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" s="5">
         <f>[1]use_fish!$B161</f>
         <v>9</v>
       </c>
@@ -5222,12 +5852,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="3">
+    <row r="162" s="3" customFormat="1" spans="1:3">
+      <c r="A162" s="6">
         <f>[1]use_fish!$A162</f>
         <v>161</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" s="5">
         <f>[1]use_fish!$B162</f>
         <v>10</v>
       </c>
@@ -5235,65 +5865,65 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="3">
+    <row r="163" s="3" customFormat="1" spans="1:3">
+      <c r="A163" s="6">
         <f>[1]use_fish!$A163</f>
         <v>162</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" s="5">
         <f>[1]use_fish!$B163</f>
         <v>32</v>
       </c>
       <c r="C163" s="7"/>
     </row>
-    <row r="164" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="3">
+    <row r="164" s="3" customFormat="1" spans="1:3">
+      <c r="A164" s="6">
         <f>[1]use_fish!$A164</f>
         <v>163</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="5">
         <f>[1]use_fish!$B164</f>
         <v>32</v>
       </c>
       <c r="C164" s="7"/>
     </row>
-    <row r="165" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="3">
+    <row r="165" s="3" customFormat="1" spans="1:3">
+      <c r="A165" s="6">
         <f>[1]use_fish!$A165</f>
         <v>164</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165" s="5">
         <f>[1]use_fish!$B165</f>
         <v>32</v>
       </c>
       <c r="C165" s="7"/>
     </row>
-    <row r="166" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="3">
+    <row r="166" s="3" customFormat="1" spans="1:2">
+      <c r="A166" s="6">
         <f>[1]use_fish!$A166</f>
         <v>165</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" s="5">
         <f>[1]use_fish!$B166</f>
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="3">
+    <row r="167" s="3" customFormat="1" spans="1:2">
+      <c r="A167" s="6">
         <f>[1]use_fish!$A167</f>
         <v>166</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167" s="5">
         <f>[1]use_fish!$B167</f>
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="3">
+    <row r="168" s="3" customFormat="1" spans="1:3">
+      <c r="A168" s="6">
         <f>[1]use_fish!$A168</f>
         <v>167</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168" s="5">
         <f>[1]use_fish!$B168</f>
         <v>6</v>
       </c>
@@ -5301,12 +5931,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="3">
+    <row r="169" s="3" customFormat="1" spans="1:3">
+      <c r="A169" s="6">
         <f>[1]use_fish!$A169</f>
         <v>168</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" s="5">
         <f>[1]use_fish!$B169</f>
         <v>7</v>
       </c>
@@ -5314,424 +5944,429 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="3">
+    <row r="170" spans="1:4">
+      <c r="A170" s="6">
         <f>[1]use_fish!$A170</f>
         <v>169</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170" s="5">
         <f>[1]use_fish!$B170</f>
         <v>8</v>
       </c>
       <c r="C170" s="7">
         <v>9</v>
       </c>
-      <c r="D170" s="6"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="3">
+      <c r="D170" s="3"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="6">
         <f>[1]use_fish!$A171</f>
         <v>170</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171" s="5">
         <f>[1]use_fish!$B171</f>
         <v>9</v>
       </c>
       <c r="C171" s="7">
         <v>9</v>
       </c>
-      <c r="D171" s="6"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="3">
+      <c r="D171" s="3"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="6">
         <f>[1]use_fish!$A172</f>
         <v>171</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172" s="5">
         <f>[1]use_fish!$B172</f>
         <v>10</v>
       </c>
       <c r="C172" s="7">
         <v>9</v>
       </c>
-      <c r="D172" s="6"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="3">
+      <c r="D172" s="3"/>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="6">
         <f>[1]use_fish!$A173</f>
         <v>172</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B173" s="5">
         <f>[1]use_fish!$B173</f>
         <v>34</v>
       </c>
       <c r="C173" s="7"/>
-      <c r="D173" s="6"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="3">
+      <c r="D173" s="3"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="6">
         <f>[1]use_fish!$A174</f>
         <v>173</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174" s="5">
         <f>[1]use_fish!$B174</f>
         <v>34</v>
       </c>
       <c r="C174" s="7"/>
-      <c r="D174" s="6"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="3">
+      <c r="D174" s="3"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="6">
         <f>[1]use_fish!$A175</f>
         <v>174</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175" s="5">
         <f>[1]use_fish!$B175</f>
         <v>34</v>
       </c>
       <c r="C175" s="7"/>
-      <c r="D175" s="6"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="3">
+      <c r="D175" s="3"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="6">
         <f>[1]use_fish!$A176</f>
         <v>175</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176" s="5">
         <f>[1]use_fish!$B176</f>
         <v>6</v>
       </c>
-      <c r="C176" s="6">
+      <c r="C176" s="3">
         <v>9</v>
       </c>
-      <c r="D176" s="6"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="3">
+      <c r="D176" s="3"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="6">
         <f>[1]use_fish!$A177</f>
         <v>176</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177" s="5">
         <f>[1]use_fish!$B177</f>
         <v>7</v>
       </c>
-      <c r="C177" s="6">
+      <c r="C177" s="3">
         <v>9</v>
       </c>
-      <c r="D177" s="6"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="3">
+      <c r="D177" s="3"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="6">
         <f>[1]use_fish!$A178</f>
         <v>177</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="5">
         <f>[1]use_fish!$B178</f>
         <v>8</v>
       </c>
-      <c r="C178" s="6">
+      <c r="C178" s="3">
         <v>9</v>
       </c>
-      <c r="D178" s="6"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="3">
+      <c r="D178" s="3"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="6">
         <f>[1]use_fish!$A179</f>
         <v>178</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="5">
         <f>[1]use_fish!$B179</f>
         <v>9</v>
       </c>
-      <c r="C179" s="6">
+      <c r="C179" s="3">
         <v>9</v>
       </c>
-      <c r="D179" s="6"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="3">
+      <c r="D179" s="3"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="6">
         <f>[1]use_fish!$A180</f>
         <v>179</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="5">
         <f>[1]use_fish!$B180</f>
         <v>10</v>
       </c>
-      <c r="C180" s="6">
+      <c r="C180" s="3">
         <v>9</v>
       </c>
-      <c r="D180" s="6"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="3">
+      <c r="D180" s="3"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="6">
         <f>[1]use_fish!$A181</f>
         <v>180</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181" s="5">
         <f>[1]use_fish!$B181</f>
         <v>35</v>
       </c>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="3">
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="6">
         <f>[1]use_fish!$A182</f>
         <v>181</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182" s="5">
         <f>[1]use_fish!$B182</f>
         <v>35</v>
       </c>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="3">
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="6">
         <f>[1]use_fish!$A183</f>
         <v>182</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183" s="5">
         <f>[1]use_fish!$B183</f>
         <v>35</v>
       </c>
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="3">
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="6">
         <f>[1]use_fish!$A184</f>
         <v>183</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184" s="5">
         <f>[1]use_fish!$B184</f>
         <v>6</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C184" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="3">
+    <row r="185" spans="1:3">
+      <c r="A185" s="6">
         <f>[1]use_fish!$A185</f>
         <v>184</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185" s="5">
         <f>[1]use_fish!$B185</f>
         <v>7</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C185" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="3">
+    <row r="186" spans="1:3">
+      <c r="A186" s="6">
         <f>[1]use_fish!$A186</f>
         <v>185</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186" s="5">
         <f>[1]use_fish!$B186</f>
         <v>8</v>
       </c>
-      <c r="C186" s="1">
+      <c r="C186" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="3">
+    <row r="187" spans="1:3">
+      <c r="A187" s="6">
         <f>[1]use_fish!$A187</f>
         <v>186</v>
       </c>
-      <c r="B187" s="4">
+      <c r="B187" s="5">
         <f>[1]use_fish!$B187</f>
         <v>9</v>
       </c>
-      <c r="C187" s="1">
+      <c r="C187" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="3">
+    <row r="188" spans="1:3">
+      <c r="A188" s="6">
         <f>[1]use_fish!$A188</f>
         <v>187</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188" s="5">
         <f>[1]use_fish!$B188</f>
         <v>10</v>
       </c>
-      <c r="C188" s="1">
+      <c r="C188" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="3">
+    <row r="189" spans="1:2">
+      <c r="A189" s="6">
         <f>[1]use_fish!$A189</f>
         <v>188</v>
       </c>
-      <c r="B189" s="4">
+      <c r="B189" s="5">
         <f>[1]use_fish!$B189</f>
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="3">
+    <row r="190" spans="1:2">
+      <c r="A190" s="6">
         <f>[1]use_fish!$A190</f>
         <v>189</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190" s="5">
         <f>[1]use_fish!$B190</f>
         <v>35</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="3">
+    <row r="191" spans="1:2">
+      <c r="A191" s="6">
         <f>[1]use_fish!$A191</f>
         <v>190</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B191" s="5">
         <f>[1]use_fish!$B191</f>
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192" s="8">
         <v>191</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192" s="5">
         <f>[1]use_fish!$B192</f>
         <v>6</v>
       </c>
-      <c r="C192" s="1">
+      <c r="C192" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="8">
         <v>192</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193" s="5">
         <f>[1]use_fish!$B193</f>
         <v>7</v>
       </c>
-      <c r="C193" s="1">
+      <c r="C193" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" s="8">
         <v>193</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194" s="5">
         <f>[1]use_fish!$B194</f>
         <v>8</v>
       </c>
-      <c r="C194" s="1">
+      <c r="C194" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" s="8">
         <v>194</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B195" s="5">
         <f>[1]use_fish!$B195</f>
         <v>9</v>
       </c>
-      <c r="C195" s="1">
+      <c r="C195" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" s="8">
         <v>195</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196" s="5">
         <f>[1]use_fish!$B196</f>
         <v>10</v>
       </c>
-      <c r="C196" s="1">
+      <c r="C196" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197" s="8">
         <v>196</v>
       </c>
-      <c r="B197" s="4">
+      <c r="B197" s="5">
         <f>[1]use_fish!$B197</f>
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198" s="8">
         <v>197</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B198" s="5">
         <f>[1]use_fish!$B198</f>
         <v>35</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199" s="8">
         <v>198</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B199" s="5">
         <f>[1]use_fish!$B199</f>
         <v>35</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="3"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="3"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="3"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="3"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="3"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="3"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="3"/>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="3"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="3"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" s="3"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="3"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" s="3"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" s="3"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" s="3"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" s="3"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" s="3"/>
+    <row r="200" spans="1:2">
+      <c r="A200" s="6">
+        <v>199</v>
+      </c>
+      <c r="B200" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="6"/>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="6"/>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="6"/>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="6"/>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="6"/>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="6"/>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="6"/>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="6"/>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="6"/>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="6"/>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="6"/>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="6"/>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="6"/>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="6"/>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config_Release/fish_use_config.xlsx
+++ b/config_Release/fish_use_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="use_fish" sheetId="2" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -22,7 +27,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -65,18 +70,24 @@
   <si>
     <t>actp_031_xxy_show</t>
   </si>
+  <si>
+    <t>actp_own_task_p_drop_act_nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_drop_act_nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_drop_act_nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,144 +105,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,8 +124,23 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,198 +155,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -480,347 +195,64 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="49" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="49" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="group"/>
@@ -2888,8 +2320,6 @@
           <cell r="B1" t="str">
             <v>acti_type|活动类型</v>
           </cell>
-        </row>
-        <row r="1">
           <cell r="D1" t="str">
             <v>show|显隐1显0隐</v>
           </cell>
@@ -2901,8 +2331,6 @@
           <cell r="B2">
             <v>1</v>
           </cell>
-        </row>
-        <row r="2">
           <cell r="D2">
             <v>0</v>
           </cell>
@@ -2914,8 +2342,6 @@
           <cell r="B3">
             <v>2</v>
           </cell>
-        </row>
-        <row r="3">
           <cell r="D3">
             <v>0</v>
           </cell>
@@ -2927,8 +2353,6 @@
           <cell r="B4">
             <v>3</v>
           </cell>
-        </row>
-        <row r="4">
           <cell r="D4">
             <v>0</v>
           </cell>
@@ -2940,8 +2364,6 @@
           <cell r="B5">
             <v>4</v>
           </cell>
-        </row>
-        <row r="5">
           <cell r="D5">
             <v>1</v>
           </cell>
@@ -2953,8 +2375,6 @@
           <cell r="B6">
             <v>5</v>
           </cell>
-        </row>
-        <row r="6">
           <cell r="D6">
             <v>1</v>
           </cell>
@@ -2966,8 +2386,6 @@
           <cell r="B7">
             <v>4</v>
           </cell>
-        </row>
-        <row r="7">
           <cell r="D7">
             <v>0</v>
           </cell>
@@ -2979,8 +2397,6 @@
           <cell r="B8">
             <v>1</v>
           </cell>
-        </row>
-        <row r="8">
           <cell r="D8">
             <v>0</v>
           </cell>
@@ -2992,8 +2408,6 @@
           <cell r="B9">
             <v>4</v>
           </cell>
-        </row>
-        <row r="9">
           <cell r="D9">
             <v>0</v>
           </cell>
@@ -3005,8 +2419,6 @@
           <cell r="B10">
             <v>5</v>
           </cell>
-        </row>
-        <row r="10">
           <cell r="D10">
             <v>0</v>
           </cell>
@@ -3018,8 +2430,6 @@
           <cell r="B11">
             <v>5</v>
           </cell>
-        </row>
-        <row r="11">
           <cell r="D11">
             <v>0</v>
           </cell>
@@ -3031,8 +2441,6 @@
           <cell r="B12">
             <v>7</v>
           </cell>
-        </row>
-        <row r="12">
           <cell r="D12">
             <v>1</v>
           </cell>
@@ -3044,8 +2452,6 @@
           <cell r="B13">
             <v>7</v>
           </cell>
-        </row>
-        <row r="13">
           <cell r="D13">
             <v>0</v>
           </cell>
@@ -3057,8 +2463,6 @@
           <cell r="B14">
             <v>8</v>
           </cell>
-        </row>
-        <row r="14">
           <cell r="D14">
             <v>1</v>
           </cell>
@@ -3070,8 +2474,6 @@
           <cell r="B15">
             <v>8</v>
           </cell>
-        </row>
-        <row r="15">
           <cell r="D15">
             <v>0</v>
           </cell>
@@ -3083,8 +2485,6 @@
           <cell r="B16">
             <v>9</v>
           </cell>
-        </row>
-        <row r="16">
           <cell r="D16">
             <v>1</v>
           </cell>
@@ -3096,8 +2496,6 @@
           <cell r="B17">
             <v>9</v>
           </cell>
-        </row>
-        <row r="17">
           <cell r="D17">
             <v>0</v>
           </cell>
@@ -3109,8 +2507,6 @@
           <cell r="B18">
             <v>10</v>
           </cell>
-        </row>
-        <row r="18">
           <cell r="D18">
             <v>0</v>
           </cell>
@@ -3122,8 +2518,6 @@
           <cell r="B19">
             <v>18</v>
           </cell>
-        </row>
-        <row r="19">
           <cell r="D19">
             <v>0</v>
           </cell>
@@ -3135,8 +2529,6 @@
           <cell r="B20">
             <v>17</v>
           </cell>
-        </row>
-        <row r="20">
           <cell r="D20">
             <v>1</v>
           </cell>
@@ -3148,8 +2540,6 @@
           <cell r="B21">
             <v>19</v>
           </cell>
-        </row>
-        <row r="21">
           <cell r="D21">
             <v>1</v>
           </cell>
@@ -3161,8 +2551,6 @@
           <cell r="B22">
             <v>20</v>
           </cell>
-        </row>
-        <row r="22">
           <cell r="D22">
             <v>0</v>
           </cell>
@@ -3174,8 +2562,6 @@
           <cell r="B23">
             <v>20</v>
           </cell>
-        </row>
-        <row r="23">
           <cell r="D23">
             <v>0</v>
           </cell>
@@ -3187,8 +2573,6 @@
           <cell r="B24">
             <v>20</v>
           </cell>
-        </row>
-        <row r="24">
           <cell r="D24">
             <v>0</v>
           </cell>
@@ -3200,8 +2584,6 @@
           <cell r="B25">
             <v>20</v>
           </cell>
-        </row>
-        <row r="25">
           <cell r="D25">
             <v>0</v>
           </cell>
@@ -3213,8 +2595,6 @@
           <cell r="B26">
             <v>26</v>
           </cell>
-        </row>
-        <row r="26">
           <cell r="D26">
             <v>1</v>
           </cell>
@@ -3226,8 +2606,6 @@
           <cell r="B27">
             <v>27</v>
           </cell>
-        </row>
-        <row r="27">
           <cell r="D27">
             <v>1</v>
           </cell>
@@ -3239,8 +2617,6 @@
           <cell r="B28">
             <v>9</v>
           </cell>
-        </row>
-        <row r="28">
           <cell r="D28">
             <v>0</v>
           </cell>
@@ -3252,8 +2628,6 @@
           <cell r="B29">
             <v>9</v>
           </cell>
-        </row>
-        <row r="29">
           <cell r="D29">
             <v>0</v>
           </cell>
@@ -3265,8 +2639,6 @@
           <cell r="B30">
             <v>9</v>
           </cell>
-        </row>
-        <row r="30">
           <cell r="D30">
             <v>0</v>
           </cell>
@@ -3278,8 +2650,6 @@
           <cell r="B31">
             <v>9</v>
           </cell>
-        </row>
-        <row r="31">
           <cell r="D31">
             <v>1</v>
           </cell>
@@ -3558,21 +2928,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D201" sqref="D201"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="9" style="5"/>
@@ -3581,7 +2951,7 @@
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:4">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3595,7 +2965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <f>[1]use_fish!$A2</f>
         <v>1</v>
@@ -3609,7 +2979,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <f>[1]use_fish!$A3</f>
         <v>2</v>
@@ -3623,7 +2993,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <f>[1]use_fish!$A4</f>
         <v>3</v>
@@ -3637,7 +3007,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <f>[1]use_fish!$A5</f>
         <v>4</v>
@@ -3651,7 +3021,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <f>[1]use_fish!$A6</f>
         <v>5</v>
@@ -3665,7 +3035,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <f>[1]use_fish!$A7</f>
         <v>6</v>
@@ -3679,7 +3049,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <f>[1]use_fish!$A8</f>
         <v>7</v>
@@ -3693,7 +3063,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <f>[1]use_fish!$A9</f>
         <v>8</v>
@@ -3707,7 +3077,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <f>[1]use_fish!$A10</f>
         <v>9</v>
@@ -3721,7 +3091,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <f>[1]use_fish!$A11</f>
         <v>10</v>
@@ -3735,7 +3105,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <f>[1]use_fish!$A12</f>
         <v>11</v>
@@ -3749,7 +3119,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <f>[1]use_fish!$A13</f>
         <v>12</v>
@@ -3763,7 +3133,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <f>[1]use_fish!$A14</f>
         <v>13</v>
@@ -3777,7 +3147,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <f>[1]use_fish!$A15</f>
         <v>14</v>
@@ -3791,7 +3161,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <f>[1]use_fish!$A16</f>
         <v>15</v>
@@ -3805,7 +3175,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <f>[1]use_fish!$A17</f>
         <v>16</v>
@@ -3819,7 +3189,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <f>[1]use_fish!$A18</f>
         <v>17</v>
@@ -3833,7 +3203,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <f>[1]use_fish!$A19</f>
         <v>18</v>
@@ -3847,7 +3217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <f>[1]use_fish!$A20</f>
         <v>19</v>
@@ -3861,7 +3231,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <f>[1]use_fish!$A21</f>
         <v>20</v>
@@ -3875,7 +3245,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <f>[1]use_fish!$A22</f>
         <v>21</v>
@@ -3889,7 +3259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <f>[1]use_fish!$A23</f>
         <v>22</v>
@@ -3903,7 +3273,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <f>[1]use_fish!$A24</f>
         <v>23</v>
@@ -3917,7 +3287,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <f>[1]use_fish!$A25</f>
         <v>24</v>
@@ -3931,7 +3301,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <f>[1]use_fish!$A26</f>
         <v>25</v>
@@ -3945,7 +3315,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <f>[1]use_fish!$A27</f>
         <v>26</v>
@@ -3959,7 +3329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <f>[1]use_fish!$A28</f>
         <v>27</v>
@@ -3973,7 +3343,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <f>[1]use_fish!$A29</f>
         <v>28</v>
@@ -3987,7 +3357,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <f>[1]use_fish!$A30</f>
         <v>29</v>
@@ -4001,7 +3371,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <f>[1]use_fish!$A31</f>
         <v>30</v>
@@ -4015,7 +3385,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <f>[1]use_fish!$A32</f>
         <v>31</v>
@@ -4029,7 +3399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <f>[1]use_fish!$A33</f>
         <v>32</v>
@@ -4043,7 +3413,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <f>[1]use_fish!$A34</f>
         <v>33</v>
@@ -4057,7 +3427,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <f>[1]use_fish!$A35</f>
         <v>34</v>
@@ -4071,7 +3441,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <f>[1]use_fish!$A36</f>
         <v>35</v>
@@ -4085,7 +3455,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <f>[1]use_fish!$A37</f>
         <v>36</v>
@@ -4099,7 +3469,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <f>[1]use_fish!$A38</f>
         <v>37</v>
@@ -4113,7 +3483,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <f>[1]use_fish!$A39</f>
         <v>38</v>
@@ -4127,7 +3497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <f>[1]use_fish!$A40</f>
         <v>39</v>
@@ -4141,7 +3511,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <f>[1]use_fish!$A41</f>
         <v>40</v>
@@ -4155,7 +3525,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <f>[1]use_fish!$A42</f>
         <v>41</v>
@@ -4169,7 +3539,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <f>[1]use_fish!$A43</f>
         <v>42</v>
@@ -4183,7 +3553,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <f>[1]use_fish!$A44</f>
         <v>43</v>
@@ -4197,7 +3567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <f>[1]use_fish!$A45</f>
         <v>44</v>
@@ -4211,7 +3581,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <f>[1]use_fish!$A46</f>
         <v>45</v>
@@ -4225,7 +3595,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <f>[1]use_fish!$A47</f>
         <v>46</v>
@@ -4239,7 +3609,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <f>[1]use_fish!$A48</f>
         <v>47</v>
@@ -4253,7 +3623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <f>[1]use_fish!$A49</f>
         <v>48</v>
@@ -4267,7 +3637,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <f>[1]use_fish!$A50</f>
         <v>49</v>
@@ -4281,7 +3651,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <f>[1]use_fish!$A51</f>
         <v>50</v>
@@ -4295,7 +3665,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <f>[1]use_fish!$A52</f>
         <v>51</v>
@@ -4309,7 +3679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <f>[1]use_fish!$A53</f>
         <v>52</v>
@@ -4323,7 +3693,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <f>[1]use_fish!$A54</f>
         <v>53</v>
@@ -4337,7 +3707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <f>[1]use_fish!$A55</f>
         <v>54</v>
@@ -4351,7 +3721,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <f>[1]use_fish!$A56</f>
         <v>55</v>
@@ -4365,7 +3735,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <f>[1]use_fish!$A57</f>
         <v>56</v>
@@ -4379,7 +3749,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <f>[1]use_fish!$A58</f>
         <v>57</v>
@@ -4393,7 +3763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <f>[1]use_fish!$A59</f>
         <v>58</v>
@@ -4407,7 +3777,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <f>[1]use_fish!$A60</f>
         <v>59</v>
@@ -4421,7 +3791,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <f>[1]use_fish!$A61</f>
         <v>60</v>
@@ -4435,7 +3805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <f>[1]use_fish!$A62</f>
         <v>61</v>
@@ -4449,7 +3819,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <f>[1]use_fish!$A63</f>
         <v>62</v>
@@ -4463,7 +3833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <f>[1]use_fish!$A64</f>
         <v>63</v>
@@ -4477,7 +3847,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <f>[1]use_fish!$A65</f>
         <v>64</v>
@@ -4491,7 +3861,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <f>[1]use_fish!$A66</f>
         <v>65</v>
@@ -4505,7 +3875,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <f>[1]use_fish!$A67</f>
         <v>66</v>
@@ -4519,7 +3889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <f>[1]use_fish!$A68</f>
         <v>67</v>
@@ -4533,7 +3903,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <f>[1]use_fish!$A69</f>
         <v>68</v>
@@ -4547,7 +3917,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <f>[1]use_fish!$A70</f>
         <v>69</v>
@@ -4561,7 +3931,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <f>[1]use_fish!$A71</f>
         <v>70</v>
@@ -4575,7 +3945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <f>[1]use_fish!$A72</f>
         <v>71</v>
@@ -4589,7 +3959,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <f>[1]use_fish!$A73</f>
         <v>72</v>
@@ -4603,7 +3973,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <f>[1]use_fish!$A74</f>
         <v>73</v>
@@ -4617,7 +3987,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <f>[1]use_fish!$A75</f>
         <v>74</v>
@@ -4631,7 +4001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <f>[1]use_fish!$A76</f>
         <v>75</v>
@@ -4645,7 +4015,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <f>[1]use_fish!$A77</f>
         <v>76</v>
@@ -4659,7 +4029,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <f>[1]use_fish!$A78</f>
         <v>77</v>
@@ -4673,7 +4043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <f>[1]use_fish!$A79</f>
         <v>78</v>
@@ -4687,7 +4057,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <f>[1]use_fish!$A80</f>
         <v>79</v>
@@ -4701,7 +4071,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <f>[1]use_fish!$A81</f>
         <v>80</v>
@@ -4715,7 +4085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <f>[1]use_fish!$A82</f>
         <v>81</v>
@@ -4729,7 +4099,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <f>[1]use_fish!$A83</f>
         <v>82</v>
@@ -4743,7 +4113,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <f>[1]use_fish!$A84</f>
         <v>83</v>
@@ -4757,7 +4127,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <f>[1]use_fish!$A85</f>
         <v>84</v>
@@ -4771,7 +4141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <f>[1]use_fish!$A86</f>
         <v>85</v>
@@ -4785,7 +4155,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <f>[1]use_fish!$A87</f>
         <v>86</v>
@@ -4799,7 +4169,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <f>[1]use_fish!$A88</f>
         <v>87</v>
@@ -4813,7 +4183,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <f>[1]use_fish!$A89</f>
         <v>88</v>
@@ -4827,7 +4197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <f>[1]use_fish!$A90</f>
         <v>89</v>
@@ -4841,7 +4211,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <f>[1]use_fish!$A91</f>
         <v>90</v>
@@ -4855,7 +4225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <f>[1]use_fish!$A92</f>
         <v>91</v>
@@ -4869,7 +4239,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <f>[1]use_fish!$A93</f>
         <v>92</v>
@@ -4883,7 +4253,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <f>[1]use_fish!$A94</f>
         <v>93</v>
@@ -4897,7 +4267,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <f>[1]use_fish!$A95</f>
         <v>94</v>
@@ -4911,7 +4281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <f>[1]use_fish!$A96</f>
         <v>95</v>
@@ -4925,7 +4295,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <f>[1]use_fish!$A97</f>
         <v>96</v>
@@ -4939,7 +4309,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <f>[1]use_fish!$A98</f>
         <v>97</v>
@@ -4953,7 +4323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <f>[1]use_fish!$A99</f>
         <v>98</v>
@@ -4967,7 +4337,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <f>[1]use_fish!$A100</f>
         <v>99</v>
@@ -4981,7 +4351,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <f>[1]use_fish!$A101</f>
         <v>100</v>
@@ -4995,7 +4365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <f>[1]use_fish!$A102</f>
         <v>101</v>
@@ -5009,7 +4379,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <f>[1]use_fish!$A103</f>
         <v>102</v>
@@ -5023,7 +4393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <f>[1]use_fish!$A104</f>
         <v>103</v>
@@ -5037,7 +4407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <f>[1]use_fish!$A105</f>
         <v>104</v>
@@ -5051,7 +4421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <f>[1]use_fish!$A106</f>
         <v>105</v>
@@ -5065,7 +4435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <f>[1]use_fish!$A107</f>
         <v>106</v>
@@ -5079,7 +4449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <f>[1]use_fish!$A108</f>
         <v>107</v>
@@ -5093,7 +4463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <f>[1]use_fish!$A109</f>
         <v>108</v>
@@ -5107,7 +4477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <f>[1]use_fish!$A110</f>
         <v>109</v>
@@ -5121,7 +4491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <f>[1]use_fish!$A111</f>
         <v>110</v>
@@ -5135,7 +4505,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <f>[1]use_fish!$A112</f>
         <v>111</v>
@@ -5149,7 +4519,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <f>[1]use_fish!$A113</f>
         <v>112</v>
@@ -5163,7 +4533,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <f>[1]use_fish!$A114</f>
         <v>113</v>
@@ -5177,7 +4547,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <f>[1]use_fish!$A115</f>
         <v>114</v>
@@ -5191,7 +4561,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <f>[1]use_fish!$A116</f>
         <v>115</v>
@@ -5205,7 +4575,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <f>[1]use_fish!$A117</f>
         <v>116</v>
@@ -5219,7 +4589,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <f>[1]use_fish!$A118</f>
         <v>117</v>
@@ -5233,7 +4603,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <f>[1]use_fish!$A119</f>
         <v>118</v>
@@ -5246,7 +4616,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <f>[1]use_fish!$A120</f>
         <v>119</v>
@@ -5259,7 +4629,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <f>[1]use_fish!$A121</f>
         <v>120</v>
@@ -5272,7 +4642,7 @@
         <v>50000000</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <f>[1]use_fish!$A122</f>
         <v>121</v>
@@ -5286,7 +4656,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <f>[1]use_fish!$A123</f>
         <v>122</v>
@@ -5300,7 +4670,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <f>[1]use_fish!$A124</f>
         <v>123</v>
@@ -5314,7 +4684,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <f>[1]use_fish!$A125</f>
         <v>124</v>
@@ -5328,7 +4698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <f>[1]use_fish!$A126</f>
         <v>125</v>
@@ -5342,7 +4712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <f>[1]use_fish!$A127</f>
         <v>126</v>
@@ -5356,7 +4726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <f>[1]use_fish!$A128</f>
         <v>127</v>
@@ -5370,7 +4740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <f>[1]use_fish!$A129</f>
         <v>128</v>
@@ -5384,7 +4754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <f>[1]use_fish!$A130</f>
         <v>129</v>
@@ -5398,7 +4768,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <f>[1]use_fish!$A131</f>
         <v>130</v>
@@ -5412,7 +4782,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <f>[1]use_fish!$A132</f>
         <v>131</v>
@@ -5426,7 +4796,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <f>[1]use_fish!$A133</f>
         <v>132</v>
@@ -5440,7 +4810,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <f>[1]use_fish!$A134</f>
         <v>133</v>
@@ -5454,7 +4824,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <f>[1]use_fish!$A135</f>
         <v>134</v>
@@ -5468,7 +4838,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <f>[1]use_fish!$A136</f>
         <v>135</v>
@@ -5482,7 +4852,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <f>[1]use_fish!$A137</f>
         <v>136</v>
@@ -5496,7 +4866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <f>[1]use_fish!$A138</f>
         <v>137</v>
@@ -5510,7 +4880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <f>[1]use_fish!$A139</f>
         <v>138</v>
@@ -5524,7 +4894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <f>[1]use_fish!$A140</f>
         <v>139</v>
@@ -5538,7 +4908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <f>[1]use_fish!$A141</f>
         <v>140</v>
@@ -5552,7 +4922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <f>[1]use_fish!$A142</f>
         <v>141</v>
@@ -5566,7 +4936,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <f>[1]use_fish!$A143</f>
         <v>142</v>
@@ -5580,7 +4950,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <f>[1]use_fish!$A144</f>
         <v>143</v>
@@ -5594,7 +4964,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <f>[1]use_fish!$A145</f>
         <v>144</v>
@@ -5608,7 +4978,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <f>[1]use_fish!$A146</f>
         <v>145</v>
@@ -5622,7 +4992,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <f>[1]use_fish!$A147</f>
         <v>146</v>
@@ -5636,7 +5006,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <f>[1]use_fish!$A148</f>
         <v>147</v>
@@ -5650,7 +5020,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
         <f>[1]use_fish!$A149</f>
         <v>148</v>
@@ -5664,7 +5034,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" s="2" customFormat="1" ht="15" customHeight="1" spans="1:4">
+    <row r="150" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <f>[1]use_fish!$A150</f>
         <v>149</v>
@@ -5681,7 +5051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" s="2" customFormat="1" spans="1:4">
+    <row r="151" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <f>[1]use_fish!$A151</f>
         <v>150</v>
@@ -5698,7 +5068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" s="2" customFormat="1" spans="1:4">
+    <row r="152" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <f>[1]use_fish!$A152</f>
         <v>151</v>
@@ -5715,7 +5085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" s="2" customFormat="1" spans="1:4">
+    <row r="153" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
         <f>[1]use_fish!$A153</f>
         <v>152</v>
@@ -5732,7 +5102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" s="2" customFormat="1" spans="1:4">
+    <row r="154" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
         <f>[1]use_fish!$A154</f>
         <v>153</v>
@@ -5749,7 +5119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" s="2" customFormat="1" spans="1:4">
+    <row r="155" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <f>[1]use_fish!$A155</f>
         <v>154</v>
@@ -5766,7 +5136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" s="2" customFormat="1" spans="1:4">
+    <row r="156" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <f>[1]use_fish!$A156</f>
         <v>155</v>
@@ -5783,7 +5153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" s="2" customFormat="1" spans="1:4">
+    <row r="157" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <f>[1]use_fish!$A157</f>
         <v>156</v>
@@ -5800,7 +5170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" s="3" customFormat="1" spans="1:3">
+    <row r="158" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <f>[1]use_fish!$A158</f>
         <v>157</v>
@@ -5813,7 +5183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" s="3" customFormat="1" spans="1:3">
+    <row r="159" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <f>[1]use_fish!$A159</f>
         <v>158</v>
@@ -5826,7 +5196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" s="3" customFormat="1" spans="1:3">
+    <row r="160" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <f>[1]use_fish!$A160</f>
         <v>159</v>
@@ -5839,7 +5209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" s="3" customFormat="1" spans="1:3">
+    <row r="161" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
         <f>[1]use_fish!$A161</f>
         <v>160</v>
@@ -5852,7 +5222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" s="3" customFormat="1" spans="1:3">
+    <row r="162" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <f>[1]use_fish!$A162</f>
         <v>161</v>
@@ -5865,7 +5235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" s="3" customFormat="1" spans="1:3">
+    <row r="163" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <f>[1]use_fish!$A163</f>
         <v>162</v>
@@ -5876,7 +5246,7 @@
       </c>
       <c r="C163" s="7"/>
     </row>
-    <row r="164" s="3" customFormat="1" spans="1:3">
+    <row r="164" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <f>[1]use_fish!$A164</f>
         <v>163</v>
@@ -5887,7 +5257,7 @@
       </c>
       <c r="C164" s="7"/>
     </row>
-    <row r="165" s="3" customFormat="1" spans="1:3">
+    <row r="165" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <f>[1]use_fish!$A165</f>
         <v>164</v>
@@ -5898,7 +5268,7 @@
       </c>
       <c r="C165" s="7"/>
     </row>
-    <row r="166" s="3" customFormat="1" spans="1:2">
+    <row r="166" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <f>[1]use_fish!$A166</f>
         <v>165</v>
@@ -5908,7 +5278,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" s="3" customFormat="1" spans="1:2">
+    <row r="167" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <f>[1]use_fish!$A167</f>
         <v>166</v>
@@ -5918,7 +5288,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="168" s="3" customFormat="1" spans="1:3">
+    <row r="168" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <f>[1]use_fish!$A168</f>
         <v>167</v>
@@ -5931,7 +5301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" s="3" customFormat="1" spans="1:3">
+    <row r="169" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <f>[1]use_fish!$A169</f>
         <v>168</v>
@@ -5944,7 +5314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <f>[1]use_fish!$A170</f>
         <v>169</v>
@@ -5958,7 +5328,7 @@
       </c>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <f>[1]use_fish!$A171</f>
         <v>170</v>
@@ -5972,7 +5342,7 @@
       </c>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <f>[1]use_fish!$A172</f>
         <v>171</v>
@@ -5986,7 +5356,7 @@
       </c>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <f>[1]use_fish!$A173</f>
         <v>172</v>
@@ -5998,7 +5368,7 @@
       <c r="C173" s="7"/>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <f>[1]use_fish!$A174</f>
         <v>173</v>
@@ -6010,7 +5380,7 @@
       <c r="C174" s="7"/>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <f>[1]use_fish!$A175</f>
         <v>174</v>
@@ -6022,7 +5392,7 @@
       <c r="C175" s="7"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <f>[1]use_fish!$A176</f>
         <v>175</v>
@@ -6034,9 +5404,11 @@
       <c r="C176" s="3">
         <v>9</v>
       </c>
-      <c r="D176" s="3"/>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="D176" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <f>[1]use_fish!$A177</f>
         <v>176</v>
@@ -6048,9 +5420,11 @@
       <c r="C177" s="3">
         <v>9</v>
       </c>
-      <c r="D177" s="3"/>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="D177" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <f>[1]use_fish!$A178</f>
         <v>177</v>
@@ -6062,9 +5436,11 @@
       <c r="C178" s="3">
         <v>9</v>
       </c>
-      <c r="D178" s="3"/>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="D178" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <f>[1]use_fish!$A179</f>
         <v>178</v>
@@ -6076,9 +5452,11 @@
       <c r="C179" s="3">
         <v>9</v>
       </c>
-      <c r="D179" s="3"/>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="D179" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <f>[1]use_fish!$A180</f>
         <v>179</v>
@@ -6090,9 +5468,11 @@
       <c r="C180" s="3">
         <v>9</v>
       </c>
-      <c r="D180" s="3"/>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="D180" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <f>[1]use_fish!$A181</f>
         <v>180</v>
@@ -6102,9 +5482,11 @@
         <v>35</v>
       </c>
       <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="D181" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <f>[1]use_fish!$A182</f>
         <v>181</v>
@@ -6114,9 +5496,11 @@
         <v>35</v>
       </c>
       <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="D182" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <f>[1]use_fish!$A183</f>
         <v>182</v>
@@ -6126,9 +5510,11 @@
         <v>35</v>
       </c>
       <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="D183" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <f>[1]use_fish!$A184</f>
         <v>183</v>
@@ -6141,7 +5527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <f>[1]use_fish!$A185</f>
         <v>184</v>
@@ -6154,7 +5540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
         <f>[1]use_fish!$A186</f>
         <v>185</v>
@@ -6167,7 +5553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <f>[1]use_fish!$A187</f>
         <v>186</v>
@@ -6180,7 +5566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <f>[1]use_fish!$A188</f>
         <v>187</v>
@@ -6193,7 +5579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <f>[1]use_fish!$A189</f>
         <v>188</v>
@@ -6203,7 +5589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
         <f>[1]use_fish!$A190</f>
         <v>189</v>
@@ -6213,7 +5599,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <f>[1]use_fish!$A191</f>
         <v>190</v>
@@ -6223,7 +5609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="8">
         <v>191</v>
       </c>
@@ -6235,7 +5621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="8">
         <v>192</v>
       </c>
@@ -6247,7 +5633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="8">
         <v>193</v>
       </c>
@@ -6259,7 +5645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="8">
         <v>194</v>
       </c>
@@ -6271,7 +5657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="8">
         <v>195</v>
       </c>
@@ -6283,7 +5669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="8">
         <v>196</v>
       </c>
@@ -6292,7 +5678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="8">
         <v>197</v>
       </c>
@@ -6301,7 +5687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="8">
         <v>198</v>
       </c>
@@ -6310,7 +5696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>199</v>
       </c>
@@ -6318,55 +5704,55 @@
         <v>35</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="6"/>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="6"/>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="6"/>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="6"/>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="6"/>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="6"/>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="6"/>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="6"/>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="6"/>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="6"/>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="6"/>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="6"/>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="6"/>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="6"/>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>